--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/45_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/45_225-80R17.xlsx
@@ -953,43 +953,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1969241056386636</v>
+        <v>0.1822537217397042</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2603460341224777</v>
+        <v>0.2389537470230196</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.005147360644794167</v>
       </c>
       <c r="I2">
-        <v>0.03691943118791798</v>
+        <v>0.03920747096035026</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0826421473956334</v>
+        <v>0.08008417129059872</v>
       </c>
       <c r="L2">
-        <v>0.06784042232786003</v>
+        <v>0.06685123741988523</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1175219585583207</v>
+        <v>0.1112671741112456</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.007153375724152243</v>
+        <v>0.01259623195000052</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -998,49 +998,49 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0002756063369569441</v>
       </c>
       <c r="T2">
-        <v>0.0444288685734019</v>
+        <v>0.04592100521891631</v>
       </c>
       <c r="U2">
-        <v>0.05333695000331718</v>
+        <v>0.05388494536354519</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0003924391141507413</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00480883456495426</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.00430959605488928</v>
+        <v>0.01005385610300087</v>
       </c>
       <c r="AA2">
-        <v>0.03261602646707079</v>
+        <v>0.03536017141728061</v>
       </c>
       <c r="AB2">
-        <v>0.0002829679922710583</v>
+        <v>0.006453998476230224</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.04829080732832234</v>
+        <v>0.04937362847212578</v>
       </c>
       <c r="AE2">
-        <v>0.02725998170309484</v>
+        <v>0.03057179804554516</v>
       </c>
       <c r="AF2">
-        <v>0.02012732692260714</v>
+        <v>0.02419511231461496</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.002347489433080539</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1195,43 +1195,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08510480009897121</v>
+        <v>0.07882200109130982</v>
       </c>
       <c r="E3">
-        <v>0.02444407756360171</v>
+        <v>0.02885480986616296</v>
       </c>
       <c r="F3">
-        <v>0.3336029001895509</v>
+        <v>0.2835137945178032</v>
       </c>
       <c r="G3">
-        <v>0.02647901349066408</v>
+        <v>0.03053101859478732</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01309042057220287</v>
+        <v>0.01950262403185858</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03365655503225319</v>
+        <v>0.03644327245107638</v>
       </c>
       <c r="L3">
-        <v>0.09802478054488062</v>
+        <v>0.08946439219025359</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1266692390149891</v>
+        <v>0.1130592831525587</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.005007162682267531</v>
       </c>
       <c r="P3">
-        <v>0.01563986303320918</v>
+        <v>0.02160263988465912</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1243,46 +1243,46 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.03678959476301413</v>
+        <v>0.03902400655380051</v>
       </c>
       <c r="U3">
-        <v>0.05290351332304366</v>
+        <v>0.05229729471165206</v>
       </c>
       <c r="V3">
-        <v>0.0109231184037603</v>
+        <v>0.01771738314835109</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0004174387266800577</v>
+        <v>0.00906368956485098</v>
       </c>
       <c r="Y3">
-        <v>0.0006138642814937081</v>
+        <v>0.009225488383735084</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.02781195861258782</v>
+        <v>0.03162898645629698</v>
       </c>
       <c r="AB3">
-        <v>0.00851389861892975</v>
+        <v>0.01573287091934089</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03412846610604976</v>
+        <v>0.03683199302478712</v>
       </c>
       <c r="AE3">
-        <v>0.03833943071814769</v>
+        <v>0.0403006308058874</v>
       </c>
       <c r="AF3">
-        <v>0.03284706690597038</v>
+        <v>0.03577648434981571</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.00560017361874516</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1437,43 +1437,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2542958706155528</v>
+        <v>0.2208703114954497</v>
       </c>
       <c r="E4">
-        <v>0.1650071381583949</v>
+        <v>0.1463049645514762</v>
       </c>
       <c r="F4">
-        <v>0.05941344035044922</v>
+        <v>0.05812328142673873</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01533682267003433</v>
+        <v>0.02131473684319941</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001148917053620235</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.006152203037813761</v>
       </c>
       <c r="K4">
-        <v>0.110042463029756</v>
+        <v>0.1004037633826025</v>
       </c>
       <c r="L4">
-        <v>0.1069719397614476</v>
+        <v>0.09783955817439423</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.04897335356653973</v>
+        <v>0.04940472678110162</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.004387483813413151</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1482,46 +1482,46 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.02685551631858262</v>
+        <v>0.03093404002523818</v>
       </c>
       <c r="T4">
-        <v>0.08039679277086909</v>
+        <v>0.0756465557550758</v>
       </c>
       <c r="U4">
-        <v>0.01522448985987273</v>
+        <v>0.02122092730270772</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0008224981509744468</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.004408304859256334</v>
       </c>
       <c r="X4">
-        <v>0.008439031922507403</v>
+        <v>0.01555436656934586</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.005585522393231924</v>
+        <v>0.01317139032807765</v>
       </c>
       <c r="AA4">
-        <v>0.02089937391956703</v>
+        <v>0.0259600437302028</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.003359634121032365</v>
       </c>
       <c r="AC4">
-        <v>0.01919502892939864</v>
+        <v>0.0245367389972668</v>
       </c>
       <c r="AD4">
-        <v>0.01907517485327453</v>
+        <v>0.0244366484200696</v>
       </c>
       <c r="AE4">
-        <v>0.03593564719344319</v>
+        <v>0.03851689051878202</v>
       </c>
       <c r="AF4">
-        <v>0.008352393687077993</v>
+        <v>0.01548201466216085</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1679,40 +1679,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2644274253067785</v>
+        <v>0.229789526548266</v>
       </c>
       <c r="E5">
-        <v>0.04163469738567223</v>
+        <v>0.04287599413602824</v>
       </c>
       <c r="F5">
-        <v>0.1032799347788176</v>
+        <v>0.09459370137476705</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01678829457290371</v>
+        <v>0.02203092903535553</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.006223803109504539</v>
       </c>
       <c r="J5">
-        <v>0.0001333275335918596</v>
+        <v>0.008058126823294411</v>
       </c>
       <c r="K5">
-        <v>0.004461822328536215</v>
+        <v>0.01168954809857737</v>
       </c>
       <c r="L5">
-        <v>0.2648824053890361</v>
+        <v>0.2301712353012648</v>
       </c>
       <c r="M5">
-        <v>0.002673455411601627</v>
+        <v>0.01018918504448435</v>
       </c>
       <c r="N5">
-        <v>0.01900423702614715</v>
+        <v>0.02389000960509765</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.001044542059818302</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1724,46 +1724,46 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.005992932767783929</v>
       </c>
       <c r="T5">
-        <v>0.09636283131988736</v>
+        <v>0.08879054858053674</v>
       </c>
       <c r="U5">
-        <v>0.05396258685334308</v>
+        <v>0.05321856406230493</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00103983538636299</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01772861856311512</v>
+        <v>0.02281982048734504</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.003852596948992378</v>
+        <v>0.01117843416416723</v>
       </c>
       <c r="AA5">
-        <v>0.01768671134346625</v>
+        <v>0.02278466212947925</v>
       </c>
       <c r="AB5">
-        <v>0.008001127148101332</v>
+        <v>0.01465887287089595</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.003708951399324529</v>
       </c>
       <c r="AD5">
-        <v>0.03477539167089061</v>
+        <v>0.03712133116740887</v>
       </c>
       <c r="AE5">
-        <v>0.02852836681034985</v>
+        <v>0.03188034554527393</v>
       </c>
       <c r="AF5">
-        <v>0.02181616960876882</v>
+        <v>0.02624910030265848</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1921,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1053669027930353</v>
+        <v>0.1045414898951835</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1393011092542608</v>
+        <v>0.1377920934718917</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01507749624851224</v>
+        <v>0.01607095890992016</v>
       </c>
       <c r="J6">
-        <v>0.005260278110233952</v>
+        <v>0.006451508137881336</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3756545713137613</v>
+        <v>0.3693842269111354</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01419180323798074</v>
+        <v>0.01520310814059408</v>
       </c>
       <c r="P6">
-        <v>0.003478905499396359</v>
+        <v>0.004706021188803957</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1249547444459267</v>
+        <v>0.1237347354619491</v>
       </c>
       <c r="U6">
-        <v>0.03250644620162551</v>
+        <v>0.03314880354175029</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1981,31 +1981,31 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03706354957118081</v>
+        <v>0.0376141042928465</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.0006869787771886546</v>
       </c>
       <c r="AA6">
-        <v>0.02425155753761667</v>
+        <v>0.0250602091952035</v>
       </c>
       <c r="AB6">
-        <v>0.01635022955923923</v>
+        <v>0.01731805307203678</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.05123782330420684</v>
+        <v>0.05150283799354832</v>
       </c>
       <c r="AE6">
-        <v>0.02090704533532731</v>
+        <v>0.02178307202322172</v>
       </c>
       <c r="AF6">
-        <v>0.03439753758769613</v>
+        <v>0.03500179898684522</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -2163,40 +2163,40 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1487645912086173</v>
+        <v>0.1537106556031587</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04555926132727144</v>
+        <v>0.0448298289325267</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.08154422483390421</v>
+        <v>0.08279368776442297</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02480045745007298</v>
+        <v>0.02292945102141049</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2353505437430138</v>
+        <v>0.2450581674113953</v>
       </c>
       <c r="M7">
-        <v>0.052652844983448</v>
+        <v>0.05231350495419881</v>
       </c>
       <c r="N7">
-        <v>0.01719236670165465</v>
+        <v>0.01490297398746902</v>
       </c>
       <c r="O7">
-        <v>0.04649685106231619</v>
+        <v>0.0458189788683579</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.00306622168952541</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.006186198599436831</v>
+        <v>0.003291551565553791</v>
       </c>
       <c r="T7">
-        <v>0.06554062847667903</v>
+        <v>0.06591001709469003</v>
       </c>
       <c r="U7">
-        <v>0.08814966225942837</v>
+        <v>0.08976237327939653</v>
       </c>
       <c r="V7">
-        <v>0.03248955851174452</v>
+        <v>0.03104139331074135</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.004118993413204167</v>
+        <v>0.001110666045071454</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.04276654405413917</v>
+        <v>0.04188353375857023</v>
       </c>
       <c r="AE7">
-        <v>0.06474565847838955</v>
+        <v>0.06507132988065154</v>
       </c>
       <c r="AF7">
-        <v>0.04057539320715435</v>
+        <v>0.03957188652238534</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -2540,100 +2540,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.1632429880315885</v>
+        <v>0.1364476254520545</v>
       </c>
       <c r="AX8">
-        <v>0.06044283278183924</v>
+        <v>0.05681887273087793</v>
       </c>
       <c r="AY8">
-        <v>0.004355284535135178</v>
+        <v>0.01337359291370807</v>
       </c>
       <c r="AZ8">
-        <v>0.03880421757571492</v>
+        <v>0.04005765349642187</v>
       </c>
       <c r="BA8">
-        <v>0.06461007864634684</v>
+        <v>0.06004681134310128</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>0.003265805210014573</v>
       </c>
       <c r="BC8">
-        <v>0.02405480017078388</v>
+        <v>0.0286327902900841</v>
       </c>
       <c r="BD8">
-        <v>0.09237566019485582</v>
+        <v>0.08155396395308022</v>
       </c>
       <c r="BE8">
-        <v>0.2047082967660226</v>
+        <v>0.1685665537523067</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>0.001607289383565608</v>
       </c>
       <c r="BG8">
-        <v>0.1308449621388454</v>
+        <v>0.1113521926076201</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>0.005517583088264106</v>
       </c>
       <c r="BI8">
-        <v>0.0002319772488788704</v>
+        <v>0.01017968901839727</v>
       </c>
       <c r="BJ8">
-        <v>0.009399599110682813</v>
+        <v>0.01728090683758553</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>0.006499654799227603</v>
       </c>
       <c r="BL8">
-        <v>0.02500347710342723</v>
+        <v>0.02936763315776475</v>
       </c>
       <c r="BM8">
-        <v>0.01875040548244685</v>
+        <v>0.02452401893709392</v>
       </c>
       <c r="BN8">
-        <v>0.0548967305298149</v>
+        <v>0.05252287528106975</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>0.005887958609118912</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>0.004174249683213495</v>
       </c>
       <c r="BQ8">
-        <v>0</v>
+        <v>8.089934649268934E-05</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>0.0002017084108868175</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>0.004858400539187283</v>
       </c>
       <c r="BT8">
-        <v>0.0105365971594117</v>
+        <v>0.01816162278832252</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>0.001302633574567775</v>
       </c>
       <c r="BV8">
-        <v>0.01179663070568917</v>
+        <v>0.01913764173920013</v>
       </c>
       <c r="BW8">
-        <v>0.04256245280946595</v>
+        <v>0.04296877345892897</v>
       </c>
       <c r="BX8">
-        <v>0.03861351119753872</v>
+        <v>0.03990993279509365</v>
       </c>
       <c r="BY8">
-        <v>0.004769497811511224</v>
+        <v>0.01369444152019358</v>
       </c>
       <c r="BZ8">
-        <v>0</v>
+        <v>2.100938883124887E-05</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>0.001348682621996813</v>
       </c>
       <c r="CB8">
-        <v>0</v>
+        <v>0.0006365332717281417</v>
       </c>
     </row>
     <row r="9" spans="1:80">
@@ -2647,40 +2647,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.124115544234972</v>
+        <v>0.1207708190783662</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05570573945893718</v>
+        <v>0.05571197188389718</v>
       </c>
       <c r="G9">
-        <v>0.007837738244037492</v>
+        <v>0.01018871704140141</v>
       </c>
       <c r="H9">
-        <v>0.1210730220597841</v>
+        <v>0.1178773305509633</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01510776122477914</v>
+        <v>0.01710262822347282</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2674431498113515</v>
+        <v>0.2570777245061892</v>
       </c>
       <c r="M9">
-        <v>0.05770421510230511</v>
+        <v>0.05761255502295754</v>
       </c>
       <c r="N9">
-        <v>0.00865209182969697</v>
+        <v>0.01096318066785292</v>
       </c>
       <c r="O9">
-        <v>0.06977943937724988</v>
+        <v>0.06909629150655856</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.02591588346382474</v>
+        <v>0.0273813298732039</v>
       </c>
       <c r="T9">
-        <v>0.02496598821127329</v>
+        <v>0.02647796389680886</v>
       </c>
       <c r="U9">
-        <v>0.04225881168240295</v>
+        <v>0.04292372285566615</v>
       </c>
       <c r="V9">
-        <v>0.03972091837208893</v>
+        <v>0.04051014466154409</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.002490297844715275</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.005445514078268642</v>
+        <v>0.007913672594699616</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.04189623842067722</v>
+        <v>0.04257890973262566</v>
       </c>
       <c r="AE9">
-        <v>0.05548062419642095</v>
+        <v>0.05549788357428814</v>
       </c>
       <c r="AF9">
-        <v>0.03689732023192989</v>
+        <v>0.03782485648478923</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2889,58 +2889,58 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2031949259579286</v>
+        <v>0.2249101375732502</v>
       </c>
       <c r="E10">
-        <v>0.0243722477694721</v>
+        <v>0.01995873607515636</v>
       </c>
       <c r="F10">
-        <v>0.06454236374139394</v>
+        <v>0.06599831925436525</v>
       </c>
       <c r="G10">
-        <v>0.02227947474048315</v>
+        <v>0.01756017695696292</v>
       </c>
       <c r="H10">
-        <v>0.08488933211438605</v>
+        <v>0.08931829033704483</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01005272491556609</v>
+        <v>0.00354691232090576</v>
       </c>
       <c r="K10">
-        <v>0.04401372702517985</v>
+        <v>0.04247013531004883</v>
       </c>
       <c r="L10">
-        <v>0.2215040579513372</v>
+        <v>0.2458945132703195</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1029763427373177</v>
+        <v>0.1100480893403574</v>
       </c>
       <c r="O10">
-        <v>0.01095446426468584</v>
+        <v>0.004580409555486397</v>
       </c>
       <c r="P10">
-        <v>0.01044608841512904</v>
+        <v>0.003997752233104467</v>
       </c>
       <c r="Q10">
-        <v>0.0004470905751484935</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.00695799925920164</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.01663409136564289</v>
+        <v>0.01108991688486967</v>
       </c>
       <c r="U10">
-        <v>0.06651732026581533</v>
+        <v>0.06826184707800849</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.00945910860599136</v>
+        <v>0.00286655960595956</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.001796332548319842</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.04280791919622622</v>
+        <v>0.04108814054861832</v>
       </c>
       <c r="AE10">
-        <v>0.03935803646834615</v>
+        <v>0.03713417728598371</v>
       </c>
       <c r="AF10">
-        <v>0.01679635208242875</v>
+        <v>0.01127588636955829</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -3263,100 +3263,100 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.2661081420317362</v>
+        <v>0.2226359146676182</v>
       </c>
       <c r="AW11">
-        <v>0.02608018904193573</v>
+        <v>0.03083959103729727</v>
       </c>
       <c r="AX11">
-        <v>0.1196481651186426</v>
+        <v>0.1056058572054914</v>
       </c>
       <c r="AY11">
-        <v>0.017987452157917</v>
+        <v>0.02437302261004309</v>
       </c>
       <c r="AZ11">
-        <v>0.02384958831385303</v>
+        <v>0.02905721105278122</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>0.004101933178399429</v>
       </c>
       <c r="BB11">
-        <v>0.008966565583804802</v>
+        <v>0.01716480848643908</v>
       </c>
       <c r="BC11">
-        <v>0.07921645995344222</v>
+        <v>0.07329856835767949</v>
       </c>
       <c r="BD11">
-        <v>0.1379106009324991</v>
+        <v>0.1201986077830927</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>0.0004055943224921562</v>
       </c>
       <c r="BF11">
-        <v>0.1175409769392103</v>
+        <v>0.1039220910400166</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>0.001306085822226064</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>0.004451850608408323</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>0.003805639208221023</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>0.0006072420718555886</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>0.005693406566564317</v>
       </c>
       <c r="BL11">
-        <v>0.03105577950910536</v>
+        <v>0.03481537780548988</v>
       </c>
       <c r="BM11">
-        <v>0.06604703225487751</v>
+        <v>0.06277542809239814</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>0.006162966194481135</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.0005800435184029032</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>0.001191227138050639</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>0.002519559765895439</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>0.006278702594895855</v>
       </c>
       <c r="BS11">
-        <v>0.01447989337452016</v>
+        <v>0.02157027871628776</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.004307142987678415</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>0.007575702891829074</v>
       </c>
       <c r="BV11">
-        <v>0.03418170812340721</v>
+        <v>0.03731317695215591</v>
       </c>
       <c r="BW11">
-        <v>0.03723484625731041</v>
+        <v>0.03975281226264433</v>
       </c>
       <c r="BX11">
-        <v>0.01969260040773839</v>
+        <v>0.02573553544026465</v>
       </c>
       <c r="BY11">
-        <v>0</v>
+        <v>0.001746706864680312</v>
       </c>
       <c r="BZ11">
-        <v>0</v>
+        <v>7.152478567929349E-06</v>
       </c>
       <c r="CA11">
-        <v>0</v>
+        <v>0.0002007622776513759</v>
       </c>
       <c r="CB11">
         <v>0</v>
@@ -3628,235 +3628,235 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1969241056386636</v>
+        <v>0.1822537217397042</v>
       </c>
       <c r="E2">
-        <v>0.1969241056386636</v>
+        <v>0.1822537217397042</v>
       </c>
       <c r="F2">
-        <v>0.4572701397611413</v>
+        <v>0.4212074687627239</v>
       </c>
       <c r="G2">
-        <v>0.4572701397611413</v>
+        <v>0.4212074687627239</v>
       </c>
       <c r="H2">
-        <v>0.4572701397611413</v>
+        <v>0.426354829407518</v>
       </c>
       <c r="I2">
-        <v>0.4941895709490593</v>
+        <v>0.4655623003678683</v>
       </c>
       <c r="J2">
-        <v>0.4941895709490593</v>
+        <v>0.4655623003678683</v>
       </c>
       <c r="K2">
-        <v>0.5768317183446927</v>
+        <v>0.545646471658467</v>
       </c>
       <c r="L2">
-        <v>0.6446721406725527</v>
+        <v>0.6124977090783522</v>
       </c>
       <c r="M2">
-        <v>0.6446721406725527</v>
+        <v>0.6124977090783522</v>
       </c>
       <c r="N2">
-        <v>0.7621940992308734</v>
+        <v>0.7237648831895978</v>
       </c>
       <c r="O2">
-        <v>0.7621940992308734</v>
+        <v>0.7237648831895978</v>
       </c>
       <c r="P2">
-        <v>0.7693474749550256</v>
+        <v>0.7363611151395982</v>
       </c>
       <c r="Q2">
-        <v>0.7693474749550256</v>
+        <v>0.7363611151395982</v>
       </c>
       <c r="R2">
-        <v>0.7693474749550256</v>
+        <v>0.7363611151395982</v>
       </c>
       <c r="S2">
-        <v>0.7693474749550256</v>
+        <v>0.7366367214765551</v>
       </c>
       <c r="T2">
-        <v>0.8137763435284275</v>
+        <v>0.7825577266954714</v>
       </c>
       <c r="U2">
-        <v>0.8671132935317447</v>
+        <v>0.8364426720590166</v>
       </c>
       <c r="V2">
-        <v>0.8671132935317447</v>
+        <v>0.8368351111731673</v>
       </c>
       <c r="W2">
-        <v>0.8671132935317447</v>
+        <v>0.8368351111731673</v>
       </c>
       <c r="X2">
-        <v>0.8671132935317447</v>
+        <v>0.8416439457381216</v>
       </c>
       <c r="Y2">
-        <v>0.8671132935317447</v>
+        <v>0.8416439457381216</v>
       </c>
       <c r="Z2">
-        <v>0.8714228895866339</v>
+        <v>0.8516978018411225</v>
       </c>
       <c r="AA2">
-        <v>0.9040389160537048</v>
+        <v>0.8870579732584032</v>
       </c>
       <c r="AB2">
-        <v>0.9043218840459758</v>
+        <v>0.8935119717346334</v>
       </c>
       <c r="AC2">
-        <v>0.9043218840459758</v>
+        <v>0.8935119717346334</v>
       </c>
       <c r="AD2">
-        <v>0.9526126913742982</v>
+        <v>0.9428856002067592</v>
       </c>
       <c r="AE2">
-        <v>0.979872673077393</v>
+        <v>0.9734573982523043</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9976525105669192</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BB2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BC2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BD2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BF2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BH2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BW2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BX2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BY2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BZ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CA2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CB2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -3870,91 +3870,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08510480009897121</v>
+        <v>0.07882200109130982</v>
       </c>
       <c r="E3">
-        <v>0.1095488776625729</v>
+        <v>0.1076768109574728</v>
       </c>
       <c r="F3">
-        <v>0.4431517778521238</v>
+        <v>0.391190605475276</v>
       </c>
       <c r="G3">
-        <v>0.4696307913427879</v>
+        <v>0.4217216240700633</v>
       </c>
       <c r="H3">
-        <v>0.4696307913427879</v>
+        <v>0.4217216240700633</v>
       </c>
       <c r="I3">
-        <v>0.4827212119149908</v>
+        <v>0.4412242481019219</v>
       </c>
       <c r="J3">
-        <v>0.4827212119149908</v>
+        <v>0.4412242481019219</v>
       </c>
       <c r="K3">
-        <v>0.516377766947244</v>
+        <v>0.4776675205529983</v>
       </c>
       <c r="L3">
-        <v>0.6144025474921246</v>
+        <v>0.5671319127432519</v>
       </c>
       <c r="M3">
-        <v>0.6144025474921246</v>
+        <v>0.5671319127432519</v>
       </c>
       <c r="N3">
-        <v>0.7410717865071137</v>
+        <v>0.6801911958958106</v>
       </c>
       <c r="O3">
-        <v>0.7410717865071137</v>
+        <v>0.6851983585780781</v>
       </c>
       <c r="P3">
-        <v>0.7567116495403229</v>
+        <v>0.7068009984627373</v>
       </c>
       <c r="Q3">
-        <v>0.7567116495403229</v>
+        <v>0.7068009984627373</v>
       </c>
       <c r="R3">
-        <v>0.7567116495403229</v>
+        <v>0.7068009984627373</v>
       </c>
       <c r="S3">
-        <v>0.7567116495403229</v>
+        <v>0.7068009984627373</v>
       </c>
       <c r="T3">
-        <v>0.793501244303337</v>
+        <v>0.7458250050165378</v>
       </c>
       <c r="U3">
-        <v>0.8464047576263807</v>
+        <v>0.7981222997281898</v>
       </c>
       <c r="V3">
-        <v>0.8573278760301409</v>
+        <v>0.815839682876541</v>
       </c>
       <c r="W3">
-        <v>0.8573278760301409</v>
+        <v>0.815839682876541</v>
       </c>
       <c r="X3">
-        <v>0.857745314756821</v>
+        <v>0.8249033724413919</v>
       </c>
       <c r="Y3">
-        <v>0.8583591790383147</v>
+        <v>0.8341288608251269</v>
       </c>
       <c r="Z3">
-        <v>0.8583591790383147</v>
+        <v>0.8341288608251269</v>
       </c>
       <c r="AA3">
-        <v>0.8861711376509025</v>
+        <v>0.8657578472814239</v>
       </c>
       <c r="AB3">
-        <v>0.8946850362698322</v>
+        <v>0.8814907182007647</v>
       </c>
       <c r="AC3">
-        <v>0.8946850362698322</v>
+        <v>0.8814907182007647</v>
       </c>
       <c r="AD3">
-        <v>0.928813502375882</v>
+        <v>0.9183227112255519</v>
       </c>
       <c r="AE3">
-        <v>0.9671529330940297</v>
+        <v>0.9586233420314393</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.994399826381255</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -4112,235 +4112,235 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2542958706155528</v>
+        <v>0.2208703114954497</v>
       </c>
       <c r="E4">
-        <v>0.4193030087739477</v>
+        <v>0.3671752760469259</v>
       </c>
       <c r="F4">
-        <v>0.4787164491243969</v>
+        <v>0.4252985574736646</v>
       </c>
       <c r="G4">
-        <v>0.4787164491243969</v>
+        <v>0.4252985574736646</v>
       </c>
       <c r="H4">
-        <v>0.4940532717944313</v>
+        <v>0.446613294316864</v>
       </c>
       <c r="I4">
-        <v>0.4940532717944313</v>
+        <v>0.4477622113704843</v>
       </c>
       <c r="J4">
-        <v>0.4940532717944313</v>
+        <v>0.4539144144082981</v>
       </c>
       <c r="K4">
-        <v>0.6040957348241872</v>
+        <v>0.5543181777909005</v>
       </c>
       <c r="L4">
-        <v>0.7110676745856348</v>
+        <v>0.6521577359652948</v>
       </c>
       <c r="M4">
-        <v>0.7110676745856348</v>
+        <v>0.6521577359652948</v>
       </c>
       <c r="N4">
-        <v>0.7600410281521746</v>
+        <v>0.7015624627463964</v>
       </c>
       <c r="O4">
-        <v>0.7600410281521746</v>
+        <v>0.7015624627463964</v>
       </c>
       <c r="P4">
-        <v>0.7600410281521746</v>
+        <v>0.7059499465598096</v>
       </c>
       <c r="Q4">
-        <v>0.7600410281521746</v>
+        <v>0.7059499465598096</v>
       </c>
       <c r="R4">
-        <v>0.7600410281521746</v>
+        <v>0.7059499465598096</v>
       </c>
       <c r="S4">
-        <v>0.7868965444707572</v>
+        <v>0.7368839865850477</v>
       </c>
       <c r="T4">
-        <v>0.8672933372416263</v>
+        <v>0.8125305423401236</v>
       </c>
       <c r="U4">
-        <v>0.882517827101499</v>
+        <v>0.8337514696428313</v>
       </c>
       <c r="V4">
-        <v>0.882517827101499</v>
+        <v>0.8345739677938058</v>
       </c>
       <c r="W4">
-        <v>0.882517827101499</v>
+        <v>0.8389822726530621</v>
       </c>
       <c r="X4">
-        <v>0.8909568590240063</v>
+        <v>0.854536639222408</v>
       </c>
       <c r="Y4">
-        <v>0.8909568590240063</v>
+        <v>0.854536639222408</v>
       </c>
       <c r="Z4">
-        <v>0.8965423814172383</v>
+        <v>0.8677080295504856</v>
       </c>
       <c r="AA4">
-        <v>0.9174417553368053</v>
+        <v>0.8936680732806884</v>
       </c>
       <c r="AB4">
-        <v>0.9174417553368053</v>
+        <v>0.8970277074017208</v>
       </c>
       <c r="AC4">
-        <v>0.9366367842662039</v>
+        <v>0.9215644463989876</v>
       </c>
       <c r="AD4">
-        <v>0.9557119591194785</v>
+        <v>0.9460010948190573</v>
       </c>
       <c r="AE4">
-        <v>0.9916476063129217</v>
+        <v>0.9845179853378393</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AW4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BA4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BB4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BD4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BE4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BF4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BG4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BH4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BI4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BJ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BK4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BL4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BM4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BN4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BO4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BP4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BQ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BR4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BS4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BT4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BX4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BY4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BZ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CB4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:80">
@@ -4354,235 +4354,235 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2644274253067785</v>
+        <v>0.229789526548266</v>
       </c>
       <c r="E5">
-        <v>0.3060621226924508</v>
+        <v>0.2726655206842942</v>
       </c>
       <c r="F5">
-        <v>0.4093420574712684</v>
+        <v>0.3672592220590613</v>
       </c>
       <c r="G5">
-        <v>0.4093420574712684</v>
+        <v>0.3672592220590613</v>
       </c>
       <c r="H5">
-        <v>0.4261303520441721</v>
+        <v>0.3892901510944168</v>
       </c>
       <c r="I5">
-        <v>0.4261303520441721</v>
+        <v>0.3955139542039213</v>
       </c>
       <c r="J5">
-        <v>0.426263679577764</v>
+        <v>0.4035720810272158</v>
       </c>
       <c r="K5">
-        <v>0.4307255019063002</v>
+        <v>0.4152616291257931</v>
       </c>
       <c r="L5">
-        <v>0.6956079072953363</v>
+        <v>0.6454328644270579</v>
       </c>
       <c r="M5">
-        <v>0.6982813627069379</v>
+        <v>0.6556220494715423</v>
       </c>
       <c r="N5">
-        <v>0.717285599733085</v>
+        <v>0.67951205907664</v>
       </c>
       <c r="O5">
-        <v>0.717285599733085</v>
+        <v>0.6805566011364583</v>
       </c>
       <c r="P5">
-        <v>0.717285599733085</v>
+        <v>0.6805566011364583</v>
       </c>
       <c r="Q5">
-        <v>0.717285599733085</v>
+        <v>0.6805566011364583</v>
       </c>
       <c r="R5">
-        <v>0.717285599733085</v>
+        <v>0.6805566011364583</v>
       </c>
       <c r="S5">
-        <v>0.717285599733085</v>
+        <v>0.6865495339042422</v>
       </c>
       <c r="T5">
-        <v>0.8136484310529724</v>
+        <v>0.7753400824847789</v>
       </c>
       <c r="U5">
-        <v>0.8676110179063155</v>
+        <v>0.8285586465470839</v>
       </c>
       <c r="V5">
-        <v>0.8676110179063155</v>
+        <v>0.8295984819334469</v>
       </c>
       <c r="W5">
-        <v>0.8676110179063155</v>
+        <v>0.8295984819334469</v>
       </c>
       <c r="X5">
-        <v>0.8853396364694306</v>
+        <v>0.8524183024207919</v>
       </c>
       <c r="Y5">
-        <v>0.8853396364694306</v>
+        <v>0.8524183024207919</v>
       </c>
       <c r="Z5">
-        <v>0.889192233418423</v>
+        <v>0.8635967365849591</v>
       </c>
       <c r="AA5">
-        <v>0.9068789447618892</v>
+        <v>0.8863813987144383</v>
       </c>
       <c r="AB5">
-        <v>0.9148800719099905</v>
+        <v>0.9010402715853343</v>
       </c>
       <c r="AC5">
-        <v>0.9148800719099905</v>
+        <v>0.9047492229846588</v>
       </c>
       <c r="AD5">
-        <v>0.9496554635808812</v>
+        <v>0.9418705541520677</v>
       </c>
       <c r="AE5">
-        <v>0.978183830391231</v>
+        <v>0.9737508996973416</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:80">
@@ -4596,235 +4596,235 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1053669027930353</v>
+        <v>0.1045414898951835</v>
       </c>
       <c r="E6">
-        <v>0.1053669027930353</v>
+        <v>0.1045414898951835</v>
       </c>
       <c r="F6">
-        <v>0.2446680120472961</v>
+        <v>0.2423335833670751</v>
       </c>
       <c r="G6">
-        <v>0.2446680120472961</v>
+        <v>0.2423335833670751</v>
       </c>
       <c r="H6">
-        <v>0.2446680120472961</v>
+        <v>0.2423335833670751</v>
       </c>
       <c r="I6">
-        <v>0.2597455082958083</v>
+        <v>0.2584045422769953</v>
       </c>
       <c r="J6">
-        <v>0.2650057864060423</v>
+        <v>0.2648560504148766</v>
       </c>
       <c r="K6">
-        <v>0.2650057864060423</v>
+        <v>0.2648560504148766</v>
       </c>
       <c r="L6">
-        <v>0.6406603577198036</v>
+        <v>0.6342402773260121</v>
       </c>
       <c r="M6">
-        <v>0.6406603577198036</v>
+        <v>0.6342402773260121</v>
       </c>
       <c r="N6">
-        <v>0.6406603577198036</v>
+        <v>0.6342402773260121</v>
       </c>
       <c r="O6">
-        <v>0.6548521609577843</v>
+        <v>0.6494433854666062</v>
       </c>
       <c r="P6">
-        <v>0.6583310664571806</v>
+        <v>0.6541494066554101</v>
       </c>
       <c r="Q6">
-        <v>0.6583310664571806</v>
+        <v>0.6541494066554101</v>
       </c>
       <c r="R6">
-        <v>0.6583310664571806</v>
+        <v>0.6541494066554101</v>
       </c>
       <c r="S6">
-        <v>0.6583310664571806</v>
+        <v>0.6541494066554101</v>
       </c>
       <c r="T6">
-        <v>0.7832858109031073</v>
+        <v>0.7778841421173592</v>
       </c>
       <c r="U6">
-        <v>0.8157922571047328</v>
+        <v>0.8110329456591095</v>
       </c>
       <c r="V6">
-        <v>0.8157922571047328</v>
+        <v>0.8110329456591095</v>
       </c>
       <c r="W6">
-        <v>0.8157922571047328</v>
+        <v>0.8110329456591095</v>
       </c>
       <c r="X6">
-        <v>0.8528558066759137</v>
+        <v>0.8486470499519561</v>
       </c>
       <c r="Y6">
-        <v>0.8528558066759137</v>
+        <v>0.8486470499519561</v>
       </c>
       <c r="Z6">
-        <v>0.8528558066759137</v>
+        <v>0.8493340287291448</v>
       </c>
       <c r="AA6">
-        <v>0.8771073642135303</v>
+        <v>0.8743942379243482</v>
       </c>
       <c r="AB6">
-        <v>0.8934575937727696</v>
+        <v>0.891712290996385</v>
       </c>
       <c r="AC6">
-        <v>0.8934575937727696</v>
+        <v>0.891712290996385</v>
       </c>
       <c r="AD6">
-        <v>0.9446954170769764</v>
+        <v>0.9432151289899333</v>
       </c>
       <c r="AE6">
-        <v>0.9656024624123036</v>
+        <v>0.964998201013155</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:80">
@@ -4838,235 +4838,235 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1487645912086173</v>
+        <v>0.1537106556031587</v>
       </c>
       <c r="E7">
-        <v>0.1487645912086173</v>
+        <v>0.1537106556031587</v>
       </c>
       <c r="F7">
-        <v>0.1943238525358887</v>
+        <v>0.1985404845356854</v>
       </c>
       <c r="G7">
-        <v>0.1943238525358887</v>
+        <v>0.1985404845356854</v>
       </c>
       <c r="H7">
-        <v>0.2758680773697929</v>
+        <v>0.2813341723001084</v>
       </c>
       <c r="I7">
-        <v>0.2758680773697929</v>
+        <v>0.2813341723001084</v>
       </c>
       <c r="J7">
-        <v>0.3006685348198659</v>
+        <v>0.3042636233215189</v>
       </c>
       <c r="K7">
-        <v>0.3006685348198659</v>
+        <v>0.3042636233215189</v>
       </c>
       <c r="L7">
-        <v>0.5360190785628797</v>
+        <v>0.5493217907329142</v>
       </c>
       <c r="M7">
-        <v>0.5886719235463277</v>
+        <v>0.601635295687113</v>
       </c>
       <c r="N7">
-        <v>0.6058642902479824</v>
+        <v>0.616538269674582</v>
       </c>
       <c r="O7">
-        <v>0.6523611413102985</v>
+        <v>0.6623572485429399</v>
       </c>
       <c r="P7">
-        <v>0.6523611413102985</v>
+        <v>0.6623572485429399</v>
       </c>
       <c r="Q7">
-        <v>0.6523611413102985</v>
+        <v>0.6623572485429399</v>
       </c>
       <c r="R7">
-        <v>0.655427362999824</v>
+        <v>0.6623572485429399</v>
       </c>
       <c r="S7">
-        <v>0.6616135615992608</v>
+        <v>0.6656488001084937</v>
       </c>
       <c r="T7">
-        <v>0.7271541900759398</v>
+        <v>0.7315588172031837</v>
       </c>
       <c r="U7">
-        <v>0.8153038523353682</v>
+        <v>0.8213211904825802</v>
       </c>
       <c r="V7">
-        <v>0.8477934108471127</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="W7">
-        <v>0.8477934108471127</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="X7">
-        <v>0.8477934108471127</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="Y7">
-        <v>0.8477934108471127</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="Z7">
-        <v>0.8477934108471127</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="AA7">
-        <v>0.8519124042603169</v>
+        <v>0.853473249838393</v>
       </c>
       <c r="AB7">
-        <v>0.8519124042603169</v>
+        <v>0.853473249838393</v>
       </c>
       <c r="AC7">
-        <v>0.8519124042603169</v>
+        <v>0.853473249838393</v>
       </c>
       <c r="AD7">
-        <v>0.894678948314456</v>
+        <v>0.8953567835969632</v>
       </c>
       <c r="AE7">
-        <v>0.9594246067928456</v>
+        <v>0.9604281134776148</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:80">
@@ -5215,100 +5215,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.1632429880315885</v>
+        <v>0.1364476254520545</v>
       </c>
       <c r="AX8">
-        <v>0.2236858208134277</v>
+        <v>0.1932664981829325</v>
       </c>
       <c r="AY8">
-        <v>0.2280411053485629</v>
+        <v>0.2066400910966405</v>
       </c>
       <c r="AZ8">
-        <v>0.2668453229242778</v>
+        <v>0.2466977445930624</v>
       </c>
       <c r="BA8">
-        <v>0.3314554015706246</v>
+        <v>0.3067445559361637</v>
       </c>
       <c r="BB8">
-        <v>0.3314554015706246</v>
+        <v>0.3100103611461782</v>
       </c>
       <c r="BC8">
-        <v>0.3555102017414085</v>
+        <v>0.3386431514362623</v>
       </c>
       <c r="BD8">
-        <v>0.4478858619362643</v>
+        <v>0.4201971153893426</v>
       </c>
       <c r="BE8">
-        <v>0.6525941587022869</v>
+        <v>0.5887636691416493</v>
       </c>
       <c r="BF8">
-        <v>0.6525941587022869</v>
+        <v>0.5903709585252149</v>
       </c>
       <c r="BG8">
-        <v>0.7834391208411323</v>
+        <v>0.701723151132835</v>
       </c>
       <c r="BH8">
-        <v>0.7834391208411323</v>
+        <v>0.7072407342210991</v>
       </c>
       <c r="BI8">
-        <v>0.7836710980900112</v>
+        <v>0.7174204232394964</v>
       </c>
       <c r="BJ8">
-        <v>0.793070697200694</v>
+        <v>0.7347013300770819</v>
       </c>
       <c r="BK8">
-        <v>0.793070697200694</v>
+        <v>0.7412009848763096</v>
       </c>
       <c r="BL8">
-        <v>0.8180741743041212</v>
+        <v>0.7705686180340743</v>
       </c>
       <c r="BM8">
-        <v>0.8368245797865681</v>
+        <v>0.7950926369711682</v>
       </c>
       <c r="BN8">
-        <v>0.891721310316383</v>
+        <v>0.847615512252238</v>
       </c>
       <c r="BO8">
-        <v>0.891721310316383</v>
+        <v>0.8535034708613569</v>
       </c>
       <c r="BP8">
-        <v>0.891721310316383</v>
+        <v>0.8576777205445704</v>
       </c>
       <c r="BQ8">
-        <v>0.891721310316383</v>
+        <v>0.8577586198910631</v>
       </c>
       <c r="BR8">
-        <v>0.891721310316383</v>
+        <v>0.8579603283019499</v>
       </c>
       <c r="BS8">
-        <v>0.891721310316383</v>
+        <v>0.8628187288411372</v>
       </c>
       <c r="BT8">
-        <v>0.9022579074757947</v>
+        <v>0.8809803516294598</v>
       </c>
       <c r="BU8">
-        <v>0.9022579074757947</v>
+        <v>0.8822829852040275</v>
       </c>
       <c r="BV8">
-        <v>0.9140545381814839</v>
+        <v>0.9014206269432276</v>
       </c>
       <c r="BW8">
-        <v>0.9566169909909498</v>
+        <v>0.9443894004021566</v>
       </c>
       <c r="BX8">
-        <v>0.9952305021884885</v>
+        <v>0.9842993331972503</v>
       </c>
       <c r="BY8">
-        <v>0.9999999999999998</v>
+        <v>0.9979937747174439</v>
       </c>
       <c r="BZ8">
-        <v>0.9999999999999998</v>
+        <v>0.9980147841062751</v>
       </c>
       <c r="CA8">
-        <v>0.9999999999999998</v>
+        <v>0.9993634667282719</v>
       </c>
       <c r="CB8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:80">
@@ -5322,88 +5322,88 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.124115544234972</v>
+        <v>0.1207708190783662</v>
       </c>
       <c r="E9">
-        <v>0.124115544234972</v>
+        <v>0.1207708190783662</v>
       </c>
       <c r="F9">
-        <v>0.1798212836939092</v>
+        <v>0.1764827909622634</v>
       </c>
       <c r="G9">
-        <v>0.1876590219379466</v>
+        <v>0.1866715080036648</v>
       </c>
       <c r="H9">
-        <v>0.3087320439977308</v>
+        <v>0.3045488385546281</v>
       </c>
       <c r="I9">
-        <v>0.3087320439977308</v>
+        <v>0.3045488385546281</v>
       </c>
       <c r="J9">
-        <v>0.3238398052225099</v>
+        <v>0.3216514667781009</v>
       </c>
       <c r="K9">
-        <v>0.3238398052225099</v>
+        <v>0.3216514667781009</v>
       </c>
       <c r="L9">
-        <v>0.5912829550338614</v>
+        <v>0.57872919128429</v>
       </c>
       <c r="M9">
-        <v>0.6489871701361665</v>
+        <v>0.6363417463072476</v>
       </c>
       <c r="N9">
-        <v>0.6576392619658634</v>
+        <v>0.6473049269751006</v>
       </c>
       <c r="O9">
-        <v>0.7274187013431133</v>
+        <v>0.7164012184816592</v>
       </c>
       <c r="P9">
-        <v>0.7274187013431133</v>
+        <v>0.7164012184816592</v>
       </c>
       <c r="Q9">
-        <v>0.7274187013431133</v>
+        <v>0.7164012184816592</v>
       </c>
       <c r="R9">
-        <v>0.7274187013431133</v>
+        <v>0.7164012184816592</v>
       </c>
       <c r="S9">
-        <v>0.753334584806938</v>
+        <v>0.743782548354863</v>
       </c>
       <c r="T9">
-        <v>0.7783005730182113</v>
+        <v>0.7702605122516719</v>
       </c>
       <c r="U9">
-        <v>0.8205593847006143</v>
+        <v>0.8131842351073381</v>
       </c>
       <c r="V9">
-        <v>0.8602803030727032</v>
+        <v>0.8536943797688822</v>
       </c>
       <c r="W9">
-        <v>0.8602803030727032</v>
+        <v>0.8536943797688822</v>
       </c>
       <c r="X9">
-        <v>0.8602803030727032</v>
+        <v>0.8561846776135975</v>
       </c>
       <c r="Y9">
-        <v>0.8602803030727032</v>
+        <v>0.8561846776135975</v>
       </c>
       <c r="Z9">
-        <v>0.8602803030727032</v>
+        <v>0.8561846776135975</v>
       </c>
       <c r="AA9">
-        <v>0.8602803030727032</v>
+        <v>0.8561846776135975</v>
       </c>
       <c r="AB9">
-        <v>0.8657258171509719</v>
+        <v>0.8640983502082972</v>
       </c>
       <c r="AC9">
-        <v>0.8657258171509719</v>
+        <v>0.8640983502082972</v>
       </c>
       <c r="AD9">
-        <v>0.9076220555716491</v>
+        <v>0.9066772599409229</v>
       </c>
       <c r="AE9">
-        <v>0.9631026797680701</v>
+        <v>0.9621751435152109</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -5564,88 +5564,88 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2031949259579286</v>
+        <v>0.2249101375732502</v>
       </c>
       <c r="E10">
-        <v>0.2275671737274007</v>
+        <v>0.2448688736484066</v>
       </c>
       <c r="F10">
-        <v>0.2921095374687946</v>
+        <v>0.3108671929027719</v>
       </c>
       <c r="G10">
-        <v>0.3143890122092778</v>
+        <v>0.3284273698597348</v>
       </c>
       <c r="H10">
-        <v>0.3992783443236638</v>
+        <v>0.4177456601967796</v>
       </c>
       <c r="I10">
-        <v>0.3992783443236638</v>
+        <v>0.4177456601967796</v>
       </c>
       <c r="J10">
-        <v>0.4093310692392299</v>
+        <v>0.4212925725176854</v>
       </c>
       <c r="K10">
-        <v>0.4533447962644098</v>
+        <v>0.4637627078277342</v>
       </c>
       <c r="L10">
-        <v>0.6748488542157469</v>
+        <v>0.7096572210980537</v>
       </c>
       <c r="M10">
-        <v>0.6748488542157469</v>
+        <v>0.7096572210980537</v>
       </c>
       <c r="N10">
-        <v>0.7778251969530646</v>
+        <v>0.8197053104384111</v>
       </c>
       <c r="O10">
-        <v>0.7887796612177504</v>
+        <v>0.8242857199938975</v>
       </c>
       <c r="P10">
-        <v>0.7992257496328795</v>
+        <v>0.828283472227002</v>
       </c>
       <c r="Q10">
-        <v>0.799672840208028</v>
+        <v>0.828283472227002</v>
       </c>
       <c r="R10">
-        <v>0.799672840208028</v>
+        <v>0.828283472227002</v>
       </c>
       <c r="S10">
-        <v>0.8066308394672296</v>
+        <v>0.828283472227002</v>
       </c>
       <c r="T10">
-        <v>0.8232649308328724</v>
+        <v>0.8393733891118718</v>
       </c>
       <c r="U10">
-        <v>0.8897822510986878</v>
+        <v>0.9076352361898803</v>
       </c>
       <c r="V10">
-        <v>0.8897822510986878</v>
+        <v>0.9076352361898803</v>
       </c>
       <c r="W10">
-        <v>0.8897822510986878</v>
+        <v>0.9076352361898803</v>
       </c>
       <c r="X10">
-        <v>0.8897822510986878</v>
+        <v>0.9076352361898803</v>
       </c>
       <c r="Y10">
-        <v>0.8897822510986878</v>
+        <v>0.9076352361898803</v>
       </c>
       <c r="Z10">
-        <v>0.8897822510986878</v>
+        <v>0.9076352361898803</v>
       </c>
       <c r="AA10">
-        <v>0.8992413597046791</v>
+        <v>0.9105017957958399</v>
       </c>
       <c r="AB10">
-        <v>0.8992413597046791</v>
+        <v>0.9105017957958399</v>
       </c>
       <c r="AC10">
-        <v>0.9010376922529989</v>
+        <v>0.9105017957958399</v>
       </c>
       <c r="AD10">
-        <v>0.9438456114492251</v>
+        <v>0.9515899363444582</v>
       </c>
       <c r="AE10">
-        <v>0.9832036479175712</v>
+        <v>0.9887241136304419</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -5938,103 +5938,103 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.2661081420317362</v>
+        <v>0.2226359146676182</v>
       </c>
       <c r="AW11">
-        <v>0.2921883310736719</v>
+        <v>0.2534755057049154</v>
       </c>
       <c r="AX11">
-        <v>0.4118364961923145</v>
+        <v>0.3590813629104068</v>
       </c>
       <c r="AY11">
-        <v>0.4298239483502315</v>
+        <v>0.3834543855204499</v>
       </c>
       <c r="AZ11">
-        <v>0.4536735366640845</v>
+        <v>0.4125115965732311</v>
       </c>
       <c r="BA11">
-        <v>0.4536735366640845</v>
+        <v>0.4166135297516305</v>
       </c>
       <c r="BB11">
-        <v>0.4626401022478893</v>
+        <v>0.4337783382380696</v>
       </c>
       <c r="BC11">
-        <v>0.5418565622013315</v>
+        <v>0.5070769065957491</v>
       </c>
       <c r="BD11">
-        <v>0.6797671631338307</v>
+        <v>0.6272755143788419</v>
       </c>
       <c r="BE11">
-        <v>0.6797671631338307</v>
+        <v>0.6276811087013341</v>
       </c>
       <c r="BF11">
-        <v>0.797308140073041</v>
+        <v>0.7316031997413507</v>
       </c>
       <c r="BG11">
-        <v>0.797308140073041</v>
+        <v>0.7329092855635767</v>
       </c>
       <c r="BH11">
-        <v>0.797308140073041</v>
+        <v>0.7373611361719851</v>
       </c>
       <c r="BI11">
-        <v>0.797308140073041</v>
+        <v>0.741166775380206</v>
       </c>
       <c r="BJ11">
-        <v>0.797308140073041</v>
+        <v>0.7417740174520616</v>
       </c>
       <c r="BK11">
-        <v>0.797308140073041</v>
+        <v>0.747467424018626</v>
       </c>
       <c r="BL11">
-        <v>0.8283639195821463</v>
+        <v>0.7822828018241159</v>
       </c>
       <c r="BM11">
-        <v>0.8944109518370238</v>
+        <v>0.845058229916514</v>
       </c>
       <c r="BN11">
-        <v>0.8944109518370238</v>
+        <v>0.8512211961109951</v>
       </c>
       <c r="BO11">
-        <v>0.8944109518370238</v>
+        <v>0.851801239629398</v>
       </c>
       <c r="BP11">
-        <v>0.8944109518370238</v>
+        <v>0.8529924667674487</v>
       </c>
       <c r="BQ11">
-        <v>0.8944109518370238</v>
+        <v>0.8555120265333441</v>
       </c>
       <c r="BR11">
-        <v>0.8944109518370238</v>
+        <v>0.86179072912824</v>
       </c>
       <c r="BS11">
-        <v>0.908890845211544</v>
+        <v>0.8833610078445278</v>
       </c>
       <c r="BT11">
-        <v>0.908890845211544</v>
+        <v>0.8876681508322062</v>
       </c>
       <c r="BU11">
-        <v>0.908890845211544</v>
+        <v>0.8952438537240353</v>
       </c>
       <c r="BV11">
-        <v>0.9430725533349511</v>
+        <v>0.9325570306761911</v>
       </c>
       <c r="BW11">
-        <v>0.9803073995922615</v>
+        <v>0.9723098429388355</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999999</v>
+        <v>0.9980453783791001</v>
       </c>
       <c r="BY11">
-        <v>0.9999999999999999</v>
+        <v>0.9997920852437804</v>
       </c>
       <c r="BZ11">
-        <v>0.9999999999999999</v>
+        <v>0.9997992377223484</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5768317183446927</v>
+        <v>0.545646471658467</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -6143,16 +6143,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5671319127432519</v>
+      </c>
+      <c r="G3">
         <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.516377766947244</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6040957348241872</v>
+        <v>0.5543181777909005</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6956079072953363</v>
+        <v>0.6454328644270579</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6406603577198036</v>
+        <v>0.6342402773260121</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5360190785628797</v>
+        <v>0.5493217907329142</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6525941587022869</v>
+        <v>0.5887636691416493</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5912829550338614</v>
+        <v>0.57872919128429</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6748488542157469</v>
+        <v>0.7096572210980537</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5418565622013315</v>
+        <v>0.5070769065957491</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7621940992308734</v>
+        <v>0.7237648831895978</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -6607,16 +6607,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7410717865071137</v>
+        <v>0.7068009984627373</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -6648,16 +6648,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7110676745856348</v>
+        <v>0.7015624627463964</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -6689,16 +6689,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.717285599733085</v>
+        <v>0.7753400824847789</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7832858109031073</v>
+        <v>0.7778841421173592</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7271541900759398</v>
+        <v>0.7315588172031837</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7834391208411323</v>
+        <v>0.701723151132835</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7274187013431133</v>
+        <v>0.7164012184816592</v>
       </c>
       <c r="G9">
         <v>13</v>
@@ -6894,16 +6894,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7778251969530646</v>
+        <v>0.7096572210980537</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>45</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.797308140073041</v>
+        <v>0.7316031997413507</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -7030,16 +7030,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8364426720590166</v>
+      </c>
+      <c r="G2">
         <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8137763435284275</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -7071,16 +7071,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.815839682876541</v>
+      </c>
+      <c r="G3">
         <v>20</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8464047576263807</v>
-      </c>
-      <c r="G3">
-        <v>19</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8672933372416263</v>
+        <v>0.8125305423401236</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -7153,16 +7153,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8285586465470839</v>
+      </c>
+      <c r="G5">
         <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8136484310529724</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -7200,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8157922571047328</v>
+        <v>0.8110329456591095</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -7241,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8153038523353682</v>
+        <v>0.8213211904825802</v>
       </c>
       <c r="G7">
         <v>19</v>
@@ -7276,16 +7276,16 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8180741743041212</v>
+        <v>0.847615512252238</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>45</v>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8205593847006143</v>
+        <v>0.8131842351073381</v>
       </c>
       <c r="G9">
         <v>19</v>
@@ -7358,16 +7358,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8066308394672296</v>
+        <v>0.8197053104384111</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>45</v>
@@ -7399,16 +7399,16 @@
         <v>45</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8283639195821463</v>
+        <v>0.845058229916514</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>45</v>
@@ -7494,16 +7494,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9040389160537048</v>
+        <v>0.9428856002067592</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.928813502375882</v>
+        <v>0.9183227112255519</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -7576,16 +7576,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9174417553368053</v>
+        <v>0.9215644463989876</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -7617,16 +7617,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9010402715853343</v>
+      </c>
+      <c r="G5">
         <v>26</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9068789447618892</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9446954170769764</v>
+        <v>0.9432151289899333</v>
       </c>
       <c r="G6">
         <v>28</v>
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9594246067928456</v>
+        <v>0.9604281134776148</v>
       </c>
       <c r="G7">
         <v>29</v>
@@ -7740,16 +7740,16 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9022579074757947</v>
+        <v>0.9014206269432276</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>45</v>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9076220555716491</v>
+        <v>0.9066772599409229</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -7822,16 +7822,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9010376922529989</v>
+        <v>0.9076352361898803</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>45</v>
@@ -7863,16 +7863,16 @@
         <v>45</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.908890845211544</v>
+        <v>0.9325570306761911</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <v>45</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/45_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/45_225-80R17.xlsx
@@ -21,6 +21,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="106">
   <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
     <t>Signal_Value_45</t>
   </si>
   <si>
@@ -253,9 +256,6 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
-  </si>
-  <si>
-    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -953,97 +953,97 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.1822537217397042</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>0.2389537470230196</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.005147360644794167</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.03920747096035026</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0.08008417129059872</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.06685123741988523</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>0.1112671741112456</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>0.01259623195000052</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>0.0002756063369569441</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.04592100521891631</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.05388494536354519</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.0003924391141507413</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>0.00480883456495426</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>0.01005385610300087</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.03536017141728061</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>0.006453998476230224</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>0.04937362847212578</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>0.03057179804554516</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>0.02419511231461496</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.002347489433080539</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1195,47 +1195,47 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.07882200109130982</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.02885480986616296</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2835137945178032</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.03053101859478732</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>0.01950262403185858</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0.03644327245107638</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.08946439219025359</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0.1130592831525587</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.005007162682267531</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.02160263988465912</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
@@ -1243,49 +1243,49 @@
         <v>0</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>0.03902400655380051</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.05229729471165206</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.01771738314835109</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>0.00906368956485098</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.009225488383735084</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
       <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>0.03162898645629698</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.01573287091934089</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>0.03683199302478712</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0403006308058874</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.03577648434981571</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.00560017361874516</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1437,94 +1437,94 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.2208703114954497</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.1463049645514762</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.05812328142673873</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0.02131473684319941</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.001148917053620235</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.006152203037813761</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.1004037633826025</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.09783955817439423</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0.04940472678110162</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>0.004387483813413151</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>0.03093404002523818</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.0756465557550758</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.02122092730270772</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.0008224981509744468</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.004408304859256334</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.01555436656934586</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>0.01317139032807765</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.0259600437302028</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.003359634121032365</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.0245367389972668</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.0244366484200696</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>0.03851689051878202</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>0.01548201466216085</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1679,44 +1679,44 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.229789526548266</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.04287599413602824</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.09459370137476705</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.02203092903535553</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.006223803109504539</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.008058126823294411</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.01168954809857737</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.2301712353012648</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.01018918504448435</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.02389000960509765</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.001044542059818302</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1724,49 +1724,49 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>0.005992932767783929</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.08879054858053674</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.05321856406230493</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.00103983538636299</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>0.02281982048734504</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>0.01117843416416723</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.02278466212947925</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.01465887287089595</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>0.003708951399324529</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.03712133116740887</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>0.03188034554527393</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>0.02624910030265848</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1921,47 +1921,47 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.1045414898951835</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.1377920934718917</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0.01607095890992016</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.006451508137881336</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0.3693842269111354</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0.01520310814059408</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.004706021188803957</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
@@ -1969,46 +1969,46 @@
         <v>0</v>
       </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>0.1237347354619491</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.03314880354175029</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>0.0376141042928465</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>0.0006869787771886546</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.0250602091952035</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.01731805307203678</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
       <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>0.05150283799354832</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.02178307202322172</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>0.03500179898684522</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -2163,44 +2163,44 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1537106556031587</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>0.0448298289325267</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.04482982893252671</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0.08279368776442297</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
-        <v>0.02292945102141049</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.02292945102141048</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0.2450581674113953</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.05231350495419881</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.01490297398746902</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.0458189788683579</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
@@ -2208,20 +2208,20 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.003291551565553791</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.06591001709469003</v>
+        <v>0.003291551565553793</v>
       </c>
       <c r="U7">
+        <v>0.06591001709469005</v>
+      </c>
+      <c r="V7">
         <v>0.08976237327939653</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.03104139331074135</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
         <v>0</v>
       </c>
@@ -2232,25 +2232,25 @@
         <v>0</v>
       </c>
       <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>0.001110666045071454</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>0.04188353375857023</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.06507132988065154</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>0.03957188652238534</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -2540,100 +2540,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.1364476254520545</v>
+        <v>0.005731236262396374</v>
       </c>
       <c r="AX8">
-        <v>0.05681887273087793</v>
+        <v>0.1357520225522047</v>
       </c>
       <c r="AY8">
-        <v>0.01337359291370807</v>
+        <v>0.0565292130720392</v>
       </c>
       <c r="AZ8">
-        <v>0.04005765349642187</v>
+        <v>0.01330541503240478</v>
       </c>
       <c r="BA8">
-        <v>0.06004681134310128</v>
+        <v>0.03985344166172725</v>
       </c>
       <c r="BB8">
-        <v>0.003265805210014573</v>
+        <v>0.05974069582105673</v>
       </c>
       <c r="BC8">
-        <v>0.0286327902900841</v>
+        <v>0.003249156304862105</v>
       </c>
       <c r="BD8">
-        <v>0.08155396395308022</v>
+        <v>0.02848682181397036</v>
       </c>
       <c r="BE8">
-        <v>0.1685665537523067</v>
+        <v>0.08113820608531182</v>
       </c>
       <c r="BF8">
-        <v>0.001607289383565608</v>
+        <v>0.1677072102260319</v>
       </c>
       <c r="BG8">
-        <v>0.1113521926076201</v>
+        <v>0.001599095505860503</v>
       </c>
       <c r="BH8">
-        <v>0.005517583088264106</v>
+        <v>0.1107845249195539</v>
       </c>
       <c r="BI8">
-        <v>0.01017968901839727</v>
+        <v>0.005489454736571336</v>
       </c>
       <c r="BJ8">
-        <v>0.01728090683758553</v>
+        <v>0.01012779349308265</v>
       </c>
       <c r="BK8">
-        <v>0.006499654799227603</v>
+        <v>0.01719280967306226</v>
       </c>
       <c r="BL8">
-        <v>0.02936763315776475</v>
+        <v>0.006466519897015954</v>
       </c>
       <c r="BM8">
-        <v>0.02452401893709392</v>
+        <v>0.02921791849092033</v>
       </c>
       <c r="BN8">
-        <v>0.05252287528106975</v>
+        <v>0.02439899676369884</v>
       </c>
       <c r="BO8">
-        <v>0.005887958609118912</v>
+        <v>0.05225511639385629</v>
       </c>
       <c r="BP8">
-        <v>0.004174249683213495</v>
+        <v>0.0058579421022788</v>
       </c>
       <c r="BQ8">
-        <v>8.089934649268934E-05</v>
+        <v>0.004152969575371965</v>
       </c>
       <c r="BR8">
-        <v>0.0002017084108868175</v>
+        <v>8.048692583069664E-05</v>
       </c>
       <c r="BS8">
-        <v>0.004858400539187283</v>
+        <v>0.0002006801118961086</v>
       </c>
       <c r="BT8">
-        <v>0.01816162278832252</v>
+        <v>0.004833632665854976</v>
       </c>
       <c r="BU8">
-        <v>0.001302633574567775</v>
+        <v>0.01806903577967593</v>
       </c>
       <c r="BV8">
-        <v>0.01913764173920013</v>
+        <v>0.001295992816336116</v>
       </c>
       <c r="BW8">
-        <v>0.04296877345892897</v>
+        <v>0.01904007903669086</v>
       </c>
       <c r="BX8">
-        <v>0.03990993279509365</v>
+        <v>0.04274972088603152</v>
       </c>
       <c r="BY8">
-        <v>0.01369444152019358</v>
+        <v>0.03970647403285354</v>
       </c>
       <c r="BZ8">
-        <v>2.100938883124887E-05</v>
+        <v>0.01362462796937721</v>
       </c>
       <c r="CA8">
-        <v>0.001348682621996813</v>
+        <v>2.090228405938735E-05</v>
       </c>
       <c r="CB8">
-        <v>0.0006365332717281417</v>
+        <v>0.001341807108115718</v>
       </c>
     </row>
     <row r="9" spans="1:80">
@@ -2647,44 +2647,44 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.1207708190783662</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0.05571197188389718</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.01018871704140141</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.1178773305509633</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0.01710262822347282</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0.2570777245061892</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.05761255502295754</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.01096318066785292</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.06909629150655856</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -2692,26 +2692,26 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>0.0273813298732039</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.02647796389680886</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.04292372285566615</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.04051014466154409</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>0.002490297844715275</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
         <v>0</v>
       </c>
@@ -2719,22 +2719,22 @@
         <v>0</v>
       </c>
       <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>0.007913672594699616</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>0.04257890973262566</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.05549788357428814</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>0.03782485648478923</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2889,47 +2889,47 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.2249101375732502</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.01995873607515636</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.06599831925436525</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.01756017695696292</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.08931829033704483</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.00354691232090576</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.04247013531004883</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.2458945132703195</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>0.1100480893403574</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.004580409555486397</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.003997752233104467</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
         <v>0</v>
       </c>
@@ -2937,14 +2937,14 @@
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>0.01108991688486967</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.06826184707800849</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10">
         <v>0</v>
       </c>
@@ -2958,25 +2958,25 @@
         <v>0</v>
       </c>
       <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>0.00286655960595956</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>0.04108814054861832</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.03713417728598371</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>0.01127588636955829</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -3263,103 +3263,103 @@
         <v>0</v>
       </c>
       <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>0.2226359146676182</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>0.03083959103729727</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>0.1056058572054914</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>0.02437302261004309</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>0.02905721105278122</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>0.004101933178399429</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>0.01716480848643908</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>0.07329856835767949</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>0.1201986077830927</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>0.0004055943224921562</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>0.1039220910400166</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>0.001306085822226064</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <v>0.004451850608408323</v>
       </c>
-      <c r="BI11">
+      <c r="BJ11">
         <v>0.003805639208221023</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <v>0.0006072420718555886</v>
       </c>
-      <c r="BK11">
+      <c r="BL11">
         <v>0.005693406566564317</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>0.03481537780548988</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <v>0.06277542809239814</v>
       </c>
-      <c r="BN11">
+      <c r="BO11">
         <v>0.006162966194481135</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <v>0.0005800435184029032</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>0.001191227138050639</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>0.002519559765895439</v>
       </c>
-      <c r="BR11">
+      <c r="BS11">
         <v>0.006278702594895855</v>
       </c>
-      <c r="BS11">
+      <c r="BT11">
         <v>0.02157027871628776</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>0.004307142987678415</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>0.007575702891829074</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>0.03731317695215591</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>0.03975281226264433</v>
       </c>
-      <c r="BX11">
+      <c r="BY11">
         <v>0.02573553544026465</v>
       </c>
-      <c r="BY11">
+      <c r="BZ11">
         <v>0.001746706864680312</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>7.152478567929349E-06</v>
       </c>
-      <c r="CA11">
+      <c r="CB11">
         <v>0.0002007622776513759</v>
-      </c>
-      <c r="CB11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3628,43 +3628,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1822537217397042</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0.1822537217397042</v>
       </c>
       <c r="F2">
-        <v>0.4212074687627239</v>
+        <v>0.1822537217397042</v>
       </c>
       <c r="G2">
         <v>0.4212074687627239</v>
       </c>
       <c r="H2">
+        <v>0.4212074687627239</v>
+      </c>
+      <c r="I2">
         <v>0.426354829407518</v>
-      </c>
-      <c r="I2">
-        <v>0.4655623003678683</v>
       </c>
       <c r="J2">
         <v>0.4655623003678683</v>
       </c>
       <c r="K2">
+        <v>0.4655623003678683</v>
+      </c>
+      <c r="L2">
         <v>0.545646471658467</v>
-      </c>
-      <c r="L2">
-        <v>0.6124977090783522</v>
       </c>
       <c r="M2">
         <v>0.6124977090783522</v>
       </c>
       <c r="N2">
-        <v>0.7237648831895978</v>
+        <v>0.6124977090783522</v>
       </c>
       <c r="O2">
         <v>0.7237648831895978</v>
       </c>
       <c r="P2">
-        <v>0.7363611151395982</v>
+        <v>0.7237648831895978</v>
       </c>
       <c r="Q2">
         <v>0.7363611151395982</v>
@@ -3673,49 +3673,49 @@
         <v>0.7363611151395982</v>
       </c>
       <c r="S2">
+        <v>0.7363611151395982</v>
+      </c>
+      <c r="T2">
         <v>0.7366367214765551</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.7825577266954714</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.8364426720590166</v>
-      </c>
-      <c r="V2">
-        <v>0.8368351111731673</v>
       </c>
       <c r="W2">
         <v>0.8368351111731673</v>
       </c>
       <c r="X2">
-        <v>0.8416439457381216</v>
+        <v>0.8368351111731673</v>
       </c>
       <c r="Y2">
         <v>0.8416439457381216</v>
       </c>
       <c r="Z2">
+        <v>0.8416439457381216</v>
+      </c>
+      <c r="AA2">
         <v>0.8516978018411225</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.8870579732584032</v>
-      </c>
-      <c r="AB2">
-        <v>0.8935119717346334</v>
       </c>
       <c r="AC2">
         <v>0.8935119717346334</v>
       </c>
       <c r="AD2">
+        <v>0.8935119717346334</v>
+      </c>
+      <c r="AE2">
         <v>0.9428856002067592</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>0.9734573982523043</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>0.9976525105669192</v>
-      </c>
-      <c r="AG2">
-        <v>0.9999999999999997</v>
       </c>
       <c r="AH2">
         <v>0.9999999999999997</v>
@@ -3870,43 +3870,43 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.07882200109130982</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1076768109574728</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.391190605475276</v>
-      </c>
-      <c r="G3">
-        <v>0.4217216240700633</v>
       </c>
       <c r="H3">
         <v>0.4217216240700633</v>
       </c>
       <c r="I3">
-        <v>0.4412242481019219</v>
+        <v>0.4217216240700633</v>
       </c>
       <c r="J3">
         <v>0.4412242481019219</v>
       </c>
       <c r="K3">
+        <v>0.4412242481019219</v>
+      </c>
+      <c r="L3">
         <v>0.4776675205529983</v>
-      </c>
-      <c r="L3">
-        <v>0.5671319127432519</v>
       </c>
       <c r="M3">
         <v>0.5671319127432519</v>
       </c>
       <c r="N3">
+        <v>0.5671319127432519</v>
+      </c>
+      <c r="O3">
         <v>0.6801911958958106</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.6851983585780781</v>
-      </c>
-      <c r="P3">
-        <v>0.7068009984627373</v>
       </c>
       <c r="Q3">
         <v>0.7068009984627373</v>
@@ -3918,46 +3918,46 @@
         <v>0.7068009984627373</v>
       </c>
       <c r="T3">
+        <v>0.7068009984627373</v>
+      </c>
+      <c r="U3">
         <v>0.7458250050165378</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.7981222997281898</v>
-      </c>
-      <c r="V3">
-        <v>0.815839682876541</v>
       </c>
       <c r="W3">
         <v>0.815839682876541</v>
       </c>
       <c r="X3">
+        <v>0.815839682876541</v>
+      </c>
+      <c r="Y3">
         <v>0.8249033724413919</v>
-      </c>
-      <c r="Y3">
-        <v>0.8341288608251269</v>
       </c>
       <c r="Z3">
         <v>0.8341288608251269</v>
       </c>
       <c r="AA3">
+        <v>0.8341288608251269</v>
+      </c>
+      <c r="AB3">
         <v>0.8657578472814239</v>
-      </c>
-      <c r="AB3">
-        <v>0.8814907182007647</v>
       </c>
       <c r="AC3">
         <v>0.8814907182007647</v>
       </c>
       <c r="AD3">
+        <v>0.8814907182007647</v>
+      </c>
+      <c r="AE3">
         <v>0.9183227112255519</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.9586233420314393</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.994399826381255</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -4112,43 +4112,43 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.2208703114954497</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3671752760469259</v>
-      </c>
-      <c r="F4">
-        <v>0.4252985574736646</v>
       </c>
       <c r="G4">
         <v>0.4252985574736646</v>
       </c>
       <c r="H4">
+        <v>0.4252985574736646</v>
+      </c>
+      <c r="I4">
         <v>0.446613294316864</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.4477622113704843</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.4539144144082981</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.5543181777909005</v>
-      </c>
-      <c r="L4">
-        <v>0.6521577359652948</v>
       </c>
       <c r="M4">
         <v>0.6521577359652948</v>
       </c>
       <c r="N4">
-        <v>0.7015624627463964</v>
+        <v>0.6521577359652948</v>
       </c>
       <c r="O4">
         <v>0.7015624627463964</v>
       </c>
       <c r="P4">
-        <v>0.7059499465598096</v>
+        <v>0.7015624627463964</v>
       </c>
       <c r="Q4">
         <v>0.7059499465598096</v>
@@ -4157,46 +4157,46 @@
         <v>0.7059499465598096</v>
       </c>
       <c r="S4">
+        <v>0.7059499465598096</v>
+      </c>
+      <c r="T4">
         <v>0.7368839865850477</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.8125305423401236</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.8337514696428313</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.8345739677938058</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.8389822726530621</v>
-      </c>
-      <c r="X4">
-        <v>0.854536639222408</v>
       </c>
       <c r="Y4">
         <v>0.854536639222408</v>
       </c>
       <c r="Z4">
+        <v>0.854536639222408</v>
+      </c>
+      <c r="AA4">
         <v>0.8677080295504856</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.8936680732806884</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.8970277074017208</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.9215644463989876</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.9460010948190573</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>0.9845179853378393</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -4354,40 +4354,40 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.229789526548266</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.2726655206842942</v>
-      </c>
-      <c r="F5">
-        <v>0.3672592220590613</v>
       </c>
       <c r="G5">
         <v>0.3672592220590613</v>
       </c>
       <c r="H5">
+        <v>0.3672592220590613</v>
+      </c>
+      <c r="I5">
         <v>0.3892901510944168</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.3955139542039213</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.4035720810272158</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.4152616291257931</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.6454328644270579</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.6556220494715423</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.67951205907664</v>
-      </c>
-      <c r="O5">
-        <v>0.6805566011364583</v>
       </c>
       <c r="P5">
         <v>0.6805566011364583</v>
@@ -4399,46 +4399,46 @@
         <v>0.6805566011364583</v>
       </c>
       <c r="S5">
+        <v>0.6805566011364583</v>
+      </c>
+      <c r="T5">
         <v>0.6865495339042422</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.7753400824847789</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.8285586465470839</v>
-      </c>
-      <c r="V5">
-        <v>0.8295984819334469</v>
       </c>
       <c r="W5">
         <v>0.8295984819334469</v>
       </c>
       <c r="X5">
-        <v>0.8524183024207919</v>
+        <v>0.8295984819334469</v>
       </c>
       <c r="Y5">
         <v>0.8524183024207919</v>
       </c>
       <c r="Z5">
+        <v>0.8524183024207919</v>
+      </c>
+      <c r="AA5">
         <v>0.8635967365849591</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.8863813987144383</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.9010402715853343</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>0.9047492229846588</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.9418705541520677</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>0.9737508996973416</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -4596,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1045414898951835</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0.1045414898951835</v>
       </c>
       <c r="F6">
-        <v>0.2423335833670751</v>
+        <v>0.1045414898951835</v>
       </c>
       <c r="G6">
         <v>0.2423335833670751</v>
@@ -4611,16 +4611,16 @@
         <v>0.2423335833670751</v>
       </c>
       <c r="I6">
+        <v>0.2423335833670751</v>
+      </c>
+      <c r="J6">
         <v>0.2584045422769953</v>
-      </c>
-      <c r="J6">
-        <v>0.2648560504148766</v>
       </c>
       <c r="K6">
         <v>0.2648560504148766</v>
       </c>
       <c r="L6">
-        <v>0.6342402773260121</v>
+        <v>0.2648560504148766</v>
       </c>
       <c r="M6">
         <v>0.6342402773260121</v>
@@ -4629,10 +4629,10 @@
         <v>0.6342402773260121</v>
       </c>
       <c r="O6">
+        <v>0.6342402773260121</v>
+      </c>
+      <c r="P6">
         <v>0.6494433854666062</v>
-      </c>
-      <c r="P6">
-        <v>0.6541494066554101</v>
       </c>
       <c r="Q6">
         <v>0.6541494066554101</v>
@@ -4644,10 +4644,10 @@
         <v>0.6541494066554101</v>
       </c>
       <c r="T6">
+        <v>0.6541494066554101</v>
+      </c>
+      <c r="U6">
         <v>0.7778841421173592</v>
-      </c>
-      <c r="U6">
-        <v>0.8110329456591095</v>
       </c>
       <c r="V6">
         <v>0.8110329456591095</v>
@@ -4656,31 +4656,31 @@
         <v>0.8110329456591095</v>
       </c>
       <c r="X6">
-        <v>0.8486470499519561</v>
+        <v>0.8110329456591095</v>
       </c>
       <c r="Y6">
         <v>0.8486470499519561</v>
       </c>
       <c r="Z6">
+        <v>0.8486470499519561</v>
+      </c>
+      <c r="AA6">
         <v>0.8493340287291448</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.8743942379243482</v>
-      </c>
-      <c r="AB6">
-        <v>0.891712290996385</v>
       </c>
       <c r="AC6">
         <v>0.891712290996385</v>
       </c>
       <c r="AD6">
+        <v>0.891712290996385</v>
+      </c>
+      <c r="AE6">
         <v>0.9432151289899333</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.964998201013155</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -4838,91 +4838,91 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1537106556031587</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0.1537106556031587</v>
       </c>
       <c r="F7">
-        <v>0.1985404845356854</v>
+        <v>0.1537106556031587</v>
       </c>
       <c r="G7">
         <v>0.1985404845356854</v>
       </c>
       <c r="H7">
-        <v>0.2813341723001084</v>
+        <v>0.1985404845356854</v>
       </c>
       <c r="I7">
         <v>0.2813341723001084</v>
       </c>
       <c r="J7">
-        <v>0.3042636233215189</v>
+        <v>0.2813341723001084</v>
       </c>
       <c r="K7">
         <v>0.3042636233215189</v>
       </c>
       <c r="L7">
+        <v>0.3042636233215189</v>
+      </c>
+      <c r="M7">
         <v>0.5493217907329142</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.601635295687113</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.616538269674582</v>
       </c>
-      <c r="O7">
-        <v>0.6623572485429399</v>
-      </c>
       <c r="P7">
-        <v>0.6623572485429399</v>
+        <v>0.66235724854294</v>
       </c>
       <c r="Q7">
-        <v>0.6623572485429399</v>
+        <v>0.66235724854294</v>
       </c>
       <c r="R7">
-        <v>0.6623572485429399</v>
+        <v>0.66235724854294</v>
       </c>
       <c r="S7">
-        <v>0.6656488001084937</v>
+        <v>0.66235724854294</v>
       </c>
       <c r="T7">
-        <v>0.7315588172031837</v>
+        <v>0.6656488001084938</v>
       </c>
       <c r="U7">
-        <v>0.8213211904825802</v>
+        <v>0.7315588172031838</v>
       </c>
       <c r="V7">
-        <v>0.8523625837933215</v>
+        <v>0.8213211904825803</v>
       </c>
       <c r="W7">
-        <v>0.8523625837933215</v>
+        <v>0.8523625837933216</v>
       </c>
       <c r="X7">
-        <v>0.8523625837933215</v>
+        <v>0.8523625837933216</v>
       </c>
       <c r="Y7">
-        <v>0.8523625837933215</v>
+        <v>0.8523625837933216</v>
       </c>
       <c r="Z7">
-        <v>0.8523625837933215</v>
+        <v>0.8523625837933216</v>
       </c>
       <c r="AA7">
-        <v>0.853473249838393</v>
+        <v>0.8523625837933216</v>
       </c>
       <c r="AB7">
-        <v>0.853473249838393</v>
+        <v>0.8534732498383931</v>
       </c>
       <c r="AC7">
-        <v>0.853473249838393</v>
+        <v>0.8534732498383931</v>
       </c>
       <c r="AD7">
-        <v>0.8953567835969632</v>
+        <v>0.8534732498383931</v>
       </c>
       <c r="AE7">
-        <v>0.9604281134776148</v>
+        <v>0.8953567835969634</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9604281134776149</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -5215,97 +5215,97 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.1364476254520545</v>
+        <v>0.005731236262396374</v>
       </c>
       <c r="AX8">
-        <v>0.1932664981829325</v>
+        <v>0.1414832588146011</v>
       </c>
       <c r="AY8">
-        <v>0.2066400910966405</v>
+        <v>0.1980124718866403</v>
       </c>
       <c r="AZ8">
-        <v>0.2466977445930624</v>
+        <v>0.2113178869190451</v>
       </c>
       <c r="BA8">
-        <v>0.3067445559361637</v>
+        <v>0.2511713285807723</v>
       </c>
       <c r="BB8">
-        <v>0.3100103611461782</v>
+        <v>0.3109120244018291</v>
       </c>
       <c r="BC8">
-        <v>0.3386431514362623</v>
+        <v>0.3141611807066912</v>
       </c>
       <c r="BD8">
-        <v>0.4201971153893426</v>
+        <v>0.3426480025206616</v>
       </c>
       <c r="BE8">
-        <v>0.5887636691416493</v>
+        <v>0.4237862086059734</v>
       </c>
       <c r="BF8">
-        <v>0.5903709585252149</v>
+        <v>0.5914934188320053</v>
       </c>
       <c r="BG8">
-        <v>0.701723151132835</v>
+        <v>0.5930925143378658</v>
       </c>
       <c r="BH8">
-        <v>0.7072407342210991</v>
+        <v>0.7038770392574196</v>
       </c>
       <c r="BI8">
-        <v>0.7174204232394964</v>
+        <v>0.709366493993991</v>
       </c>
       <c r="BJ8">
-        <v>0.7347013300770819</v>
+        <v>0.7194942874870737</v>
       </c>
       <c r="BK8">
-        <v>0.7412009848763096</v>
+        <v>0.7366870971601359</v>
       </c>
       <c r="BL8">
-        <v>0.7705686180340743</v>
+        <v>0.7431536170571519</v>
       </c>
       <c r="BM8">
-        <v>0.7950926369711682</v>
+        <v>0.7723715355480723</v>
       </c>
       <c r="BN8">
-        <v>0.847615512252238</v>
+        <v>0.7967705323117711</v>
       </c>
       <c r="BO8">
-        <v>0.8535034708613569</v>
+        <v>0.8490256487056274</v>
       </c>
       <c r="BP8">
-        <v>0.8576777205445704</v>
+        <v>0.8548835908079061</v>
       </c>
       <c r="BQ8">
-        <v>0.8577586198910631</v>
+        <v>0.859036560383278</v>
       </c>
       <c r="BR8">
-        <v>0.8579603283019499</v>
+        <v>0.8591170473091088</v>
       </c>
       <c r="BS8">
-        <v>0.8628187288411372</v>
+        <v>0.8593177274210049</v>
       </c>
       <c r="BT8">
-        <v>0.8809803516294598</v>
+        <v>0.8641513600868599</v>
       </c>
       <c r="BU8">
-        <v>0.8822829852040275</v>
+        <v>0.8822203958665358</v>
       </c>
       <c r="BV8">
-        <v>0.9014206269432276</v>
+        <v>0.8835163886828719</v>
       </c>
       <c r="BW8">
-        <v>0.9443894004021566</v>
+        <v>0.9025564677195628</v>
       </c>
       <c r="BX8">
-        <v>0.9842993331972503</v>
+        <v>0.9453061886055943</v>
       </c>
       <c r="BY8">
-        <v>0.9979937747174439</v>
+        <v>0.9850126626384479</v>
       </c>
       <c r="BZ8">
-        <v>0.9980147841062751</v>
+        <v>0.9986372906078251</v>
       </c>
       <c r="CA8">
-        <v>0.9993634667282719</v>
+        <v>0.9986581928918845</v>
       </c>
       <c r="CB8">
         <v>1</v>
@@ -5322,40 +5322,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1207708190783662</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0.1207708190783662</v>
       </c>
       <c r="F9">
+        <v>0.1207708190783662</v>
+      </c>
+      <c r="G9">
         <v>0.1764827909622634</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.1866715080036648</v>
-      </c>
-      <c r="H9">
-        <v>0.3045488385546281</v>
       </c>
       <c r="I9">
         <v>0.3045488385546281</v>
       </c>
       <c r="J9">
-        <v>0.3216514667781009</v>
+        <v>0.3045488385546281</v>
       </c>
       <c r="K9">
         <v>0.3216514667781009</v>
       </c>
       <c r="L9">
+        <v>0.3216514667781009</v>
+      </c>
+      <c r="M9">
         <v>0.57872919128429</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.6363417463072476</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.6473049269751006</v>
-      </c>
-      <c r="O9">
-        <v>0.7164012184816592</v>
       </c>
       <c r="P9">
         <v>0.7164012184816592</v>
@@ -5367,22 +5367,22 @@
         <v>0.7164012184816592</v>
       </c>
       <c r="S9">
+        <v>0.7164012184816592</v>
+      </c>
+      <c r="T9">
         <v>0.743782548354863</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.7702605122516719</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.8131842351073381</v>
-      </c>
-      <c r="V9">
-        <v>0.8536943797688822</v>
       </c>
       <c r="W9">
         <v>0.8536943797688822</v>
       </c>
       <c r="X9">
-        <v>0.8561846776135975</v>
+        <v>0.8536943797688822</v>
       </c>
       <c r="Y9">
         <v>0.8561846776135975</v>
@@ -5394,19 +5394,19 @@
         <v>0.8561846776135975</v>
       </c>
       <c r="AB9">
-        <v>0.8640983502082972</v>
+        <v>0.8561846776135975</v>
       </c>
       <c r="AC9">
         <v>0.8640983502082972</v>
       </c>
       <c r="AD9">
+        <v>0.8640983502082972</v>
+      </c>
+      <c r="AE9">
         <v>0.9066772599409229</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.9621751435152109</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -5564,43 +5564,43 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.2249101375732502</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2448688736484066</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.3108671929027719</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.3284273698597348</v>
-      </c>
-      <c r="H10">
-        <v>0.4177456601967796</v>
       </c>
       <c r="I10">
         <v>0.4177456601967796</v>
       </c>
       <c r="J10">
+        <v>0.4177456601967796</v>
+      </c>
+      <c r="K10">
         <v>0.4212925725176854</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.4637627078277342</v>
-      </c>
-      <c r="L10">
-        <v>0.7096572210980537</v>
       </c>
       <c r="M10">
         <v>0.7096572210980537</v>
       </c>
       <c r="N10">
+        <v>0.7096572210980537</v>
+      </c>
+      <c r="O10">
         <v>0.8197053104384111</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.8242857199938975</v>
-      </c>
-      <c r="P10">
-        <v>0.828283472227002</v>
       </c>
       <c r="Q10">
         <v>0.828283472227002</v>
@@ -5612,10 +5612,10 @@
         <v>0.828283472227002</v>
       </c>
       <c r="T10">
+        <v>0.828283472227002</v>
+      </c>
+      <c r="U10">
         <v>0.8393733891118718</v>
-      </c>
-      <c r="U10">
-        <v>0.9076352361898803</v>
       </c>
       <c r="V10">
         <v>0.9076352361898803</v>
@@ -5633,7 +5633,7 @@
         <v>0.9076352361898803</v>
       </c>
       <c r="AA10">
-        <v>0.9105017957958399</v>
+        <v>0.9076352361898803</v>
       </c>
       <c r="AB10">
         <v>0.9105017957958399</v>
@@ -5642,13 +5642,13 @@
         <v>0.9105017957958399</v>
       </c>
       <c r="AD10">
+        <v>0.9105017957958399</v>
+      </c>
+      <c r="AE10">
         <v>0.9515899363444582</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.9887241136304419</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -5938,100 +5938,100 @@
         <v>0</v>
       </c>
       <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>0.2226359146676182</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>0.2534755057049154</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>0.3590813629104068</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>0.3834543855204499</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>0.4125115965732311</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>0.4166135297516305</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>0.4337783382380696</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>0.5070769065957491</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>0.6272755143788419</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>0.6276811087013341</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>0.7316031997413507</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>0.7329092855635767</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <v>0.7373611361719851</v>
       </c>
-      <c r="BI11">
+      <c r="BJ11">
         <v>0.741166775380206</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <v>0.7417740174520616</v>
       </c>
-      <c r="BK11">
+      <c r="BL11">
         <v>0.747467424018626</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>0.7822828018241159</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <v>0.845058229916514</v>
       </c>
-      <c r="BN11">
+      <c r="BO11">
         <v>0.8512211961109951</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <v>0.851801239629398</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>0.8529924667674487</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>0.8555120265333441</v>
       </c>
-      <c r="BR11">
+      <c r="BS11">
         <v>0.86179072912824</v>
       </c>
-      <c r="BS11">
+      <c r="BT11">
         <v>0.8833610078445278</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>0.8876681508322062</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>0.8952438537240353</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>0.9325570306761911</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>0.9723098429388355</v>
       </c>
-      <c r="BX11">
+      <c r="BY11">
         <v>0.9980453783791001</v>
       </c>
-      <c r="BY11">
+      <c r="BZ11">
         <v>0.9997920852437804</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>0.9997992377223484</v>
-      </c>
-      <c r="CA11">
-        <v>0.9999999999999998</v>
       </c>
       <c r="CB11">
         <v>0.9999999999999998</v>
@@ -6099,10 +6099,10 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6140,10 +6140,10 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6222,10 +6222,10 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6263,10 +6263,10 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6304,10 +6304,10 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6345,16 +6345,16 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5887636691416493</v>
+        <v>0.5914934188320053</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -6386,10 +6386,10 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6427,10 +6427,10 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6563,10 +6563,10 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6604,10 +6604,10 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6645,10 +6645,10 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6686,10 +6686,10 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6727,10 +6727,10 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6768,16 +6768,16 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7315588172031837</v>
+        <v>0.7315588172031838</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -6809,16 +6809,16 @@
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.701723151132835</v>
+        <v>0.7038770392574196</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -6850,10 +6850,10 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6891,10 +6891,10 @@
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6932,10 +6932,10 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7027,10 +7027,10 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7068,10 +7068,10 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7109,10 +7109,10 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7150,10 +7150,10 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7191,10 +7191,10 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7232,16 +7232,16 @@
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8213211904825802</v>
+        <v>0.8213211904825803</v>
       </c>
       <c r="G7">
         <v>19</v>
@@ -7273,16 +7273,16 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.847615512252238</v>
+        <v>0.8490256487056274</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -7314,10 +7314,10 @@
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7355,10 +7355,10 @@
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7491,10 +7491,10 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7532,10 +7532,10 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7573,10 +7573,10 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7614,10 +7614,10 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7696,16 +7696,16 @@
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9604281134776148</v>
+        <v>0.9604281134776149</v>
       </c>
       <c r="G7">
         <v>29</v>
@@ -7737,16 +7737,16 @@
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9014206269432276</v>
+        <v>0.9025564677195628</v>
       </c>
       <c r="G8">
         <v>27</v>
@@ -7778,10 +7778,10 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7819,10 +7819,10 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7860,10 +7860,10 @@
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>0</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/45_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/45_225-80R17.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="106">
   <si>
-    <t>Signal_Value_44</t>
-  </si>
-  <si>
     <t>Signal_Value_45</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -953,97 +953,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1822537217397042</v>
       </c>
       <c r="E2">
-        <v>0.1822537217397042</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2389537470230196</v>
       </c>
       <c r="G2">
-        <v>0.2389537470230196</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.005147360644794167</v>
       </c>
       <c r="I2">
-        <v>0.005147360644794167</v>
+        <v>0.03920747096035026</v>
       </c>
       <c r="J2">
-        <v>0.03920747096035026</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.08008417129059872</v>
       </c>
       <c r="L2">
-        <v>0.08008417129059872</v>
+        <v>0.06685123741988523</v>
       </c>
       <c r="M2">
-        <v>0.06685123741988523</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1112671741112456</v>
       </c>
       <c r="O2">
-        <v>0.1112671741112456</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01259623195000052</v>
       </c>
       <c r="Q2">
-        <v>0.01259623195000052</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0002756063369569441</v>
       </c>
       <c r="T2">
-        <v>0.0002756063369569441</v>
+        <v>0.04592100521891631</v>
       </c>
       <c r="U2">
-        <v>0.04592100521891631</v>
+        <v>0.05388494536354519</v>
       </c>
       <c r="V2">
-        <v>0.05388494536354519</v>
+        <v>0.0003924391141507413</v>
       </c>
       <c r="W2">
-        <v>0.0003924391141507413</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00480883456495426</v>
       </c>
       <c r="Y2">
-        <v>0.00480883456495426</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.01005385610300087</v>
       </c>
       <c r="AA2">
-        <v>0.01005385610300087</v>
+        <v>0.03536017141728061</v>
       </c>
       <c r="AB2">
-        <v>0.03536017141728061</v>
+        <v>0.006453998476230224</v>
       </c>
       <c r="AC2">
-        <v>0.006453998476230224</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.04937362847212578</v>
       </c>
       <c r="AE2">
-        <v>0.04937362847212578</v>
+        <v>0.03057179804554516</v>
       </c>
       <c r="AF2">
-        <v>0.03057179804554516</v>
+        <v>0.02419511231461496</v>
       </c>
       <c r="AG2">
-        <v>0.02419511231461496</v>
+        <v>0.002347489433080539</v>
       </c>
       <c r="AH2">
-        <v>0.002347489433080539</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1195,46 +1195,46 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.07882200109130982</v>
       </c>
       <c r="E3">
-        <v>0.07882200109130982</v>
+        <v>0.02885480986616296</v>
       </c>
       <c r="F3">
-        <v>0.02885480986616296</v>
+        <v>0.2835137945178032</v>
       </c>
       <c r="G3">
-        <v>0.2835137945178032</v>
+        <v>0.03053101859478732</v>
       </c>
       <c r="H3">
-        <v>0.03053101859478732</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01950262403185858</v>
       </c>
       <c r="J3">
-        <v>0.01950262403185858</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.03644327245107638</v>
       </c>
       <c r="L3">
-        <v>0.03644327245107638</v>
+        <v>0.08946439219025359</v>
       </c>
       <c r="M3">
-        <v>0.08946439219025359</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1130592831525587</v>
       </c>
       <c r="O3">
-        <v>0.1130592831525587</v>
+        <v>0.005007162682267531</v>
       </c>
       <c r="P3">
-        <v>0.005007162682267531</v>
+        <v>0.02160263988465912</v>
       </c>
       <c r="Q3">
-        <v>0.02160263988465912</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1243,49 +1243,49 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.03902400655380051</v>
       </c>
       <c r="U3">
-        <v>0.03902400655380051</v>
+        <v>0.05229729471165206</v>
       </c>
       <c r="V3">
-        <v>0.05229729471165206</v>
+        <v>0.01771738314835109</v>
       </c>
       <c r="W3">
-        <v>0.01771738314835109</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00906368956485098</v>
       </c>
       <c r="Y3">
-        <v>0.00906368956485098</v>
+        <v>0.009225488383735084</v>
       </c>
       <c r="Z3">
-        <v>0.009225488383735084</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.03162898645629698</v>
       </c>
       <c r="AB3">
-        <v>0.03162898645629698</v>
+        <v>0.01573287091934089</v>
       </c>
       <c r="AC3">
-        <v>0.01573287091934089</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.03683199302478712</v>
       </c>
       <c r="AE3">
-        <v>0.03683199302478712</v>
+        <v>0.0403006308058874</v>
       </c>
       <c r="AF3">
-        <v>0.0403006308058874</v>
+        <v>0.03577648434981571</v>
       </c>
       <c r="AG3">
-        <v>0.03577648434981571</v>
+        <v>0.00560017361874516</v>
       </c>
       <c r="AH3">
-        <v>0.00560017361874516</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1437,94 +1437,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2208703114954497</v>
       </c>
       <c r="E4">
-        <v>0.2208703114954497</v>
+        <v>0.1463049645514762</v>
       </c>
       <c r="F4">
-        <v>0.1463049645514762</v>
+        <v>0.05812328142673873</v>
       </c>
       <c r="G4">
-        <v>0.05812328142673873</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02131473684319941</v>
       </c>
       <c r="I4">
-        <v>0.02131473684319941</v>
+        <v>0.001148917053620235</v>
       </c>
       <c r="J4">
-        <v>0.001148917053620235</v>
+        <v>0.006152203037813761</v>
       </c>
       <c r="K4">
-        <v>0.006152203037813761</v>
+        <v>0.1004037633826025</v>
       </c>
       <c r="L4">
-        <v>0.1004037633826025</v>
+        <v>0.09783955817439423</v>
       </c>
       <c r="M4">
-        <v>0.09783955817439423</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04940472678110162</v>
       </c>
       <c r="O4">
-        <v>0.04940472678110162</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.004387483813413151</v>
       </c>
       <c r="Q4">
-        <v>0.004387483813413151</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.03093404002523818</v>
       </c>
       <c r="T4">
-        <v>0.03093404002523818</v>
+        <v>0.0756465557550758</v>
       </c>
       <c r="U4">
-        <v>0.0756465557550758</v>
+        <v>0.02122092730270772</v>
       </c>
       <c r="V4">
-        <v>0.02122092730270772</v>
+        <v>0.0008224981509744468</v>
       </c>
       <c r="W4">
-        <v>0.0008224981509744468</v>
+        <v>0.004408304859256334</v>
       </c>
       <c r="X4">
-        <v>0.004408304859256334</v>
+        <v>0.01555436656934586</v>
       </c>
       <c r="Y4">
-        <v>0.01555436656934586</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.01317139032807765</v>
       </c>
       <c r="AA4">
-        <v>0.01317139032807765</v>
+        <v>0.0259600437302028</v>
       </c>
       <c r="AB4">
-        <v>0.0259600437302028</v>
+        <v>0.003359634121032365</v>
       </c>
       <c r="AC4">
-        <v>0.003359634121032365</v>
+        <v>0.0245367389972668</v>
       </c>
       <c r="AD4">
-        <v>0.0245367389972668</v>
+        <v>0.0244366484200696</v>
       </c>
       <c r="AE4">
-        <v>0.0244366484200696</v>
+        <v>0.03851689051878202</v>
       </c>
       <c r="AF4">
-        <v>0.03851689051878202</v>
+        <v>0.01548201466216085</v>
       </c>
       <c r="AG4">
-        <v>0.01548201466216085</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1679,43 +1679,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.229789526548266</v>
       </c>
       <c r="E5">
-        <v>0.229789526548266</v>
+        <v>0.04287599413602824</v>
       </c>
       <c r="F5">
-        <v>0.04287599413602824</v>
+        <v>0.09459370137476705</v>
       </c>
       <c r="G5">
-        <v>0.09459370137476705</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02203092903535553</v>
       </c>
       <c r="I5">
-        <v>0.02203092903535553</v>
+        <v>0.006223803109504539</v>
       </c>
       <c r="J5">
-        <v>0.006223803109504539</v>
+        <v>0.008058126823294411</v>
       </c>
       <c r="K5">
-        <v>0.008058126823294411</v>
+        <v>0.01168954809857737</v>
       </c>
       <c r="L5">
-        <v>0.01168954809857737</v>
+        <v>0.2301712353012648</v>
       </c>
       <c r="M5">
-        <v>0.2301712353012648</v>
+        <v>0.01018918504448435</v>
       </c>
       <c r="N5">
-        <v>0.01018918504448435</v>
+        <v>0.02389000960509765</v>
       </c>
       <c r="O5">
-        <v>0.02389000960509765</v>
+        <v>0.001044542059818302</v>
       </c>
       <c r="P5">
-        <v>0.001044542059818302</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1724,49 +1724,49 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.005992932767783929</v>
       </c>
       <c r="T5">
-        <v>0.005992932767783929</v>
+        <v>0.08879054858053674</v>
       </c>
       <c r="U5">
-        <v>0.08879054858053674</v>
+        <v>0.05321856406230493</v>
       </c>
       <c r="V5">
-        <v>0.05321856406230493</v>
+        <v>0.00103983538636299</v>
       </c>
       <c r="W5">
-        <v>0.00103983538636299</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.02281982048734504</v>
       </c>
       <c r="Y5">
-        <v>0.02281982048734504</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.01117843416416723</v>
       </c>
       <c r="AA5">
-        <v>0.01117843416416723</v>
+        <v>0.02278466212947925</v>
       </c>
       <c r="AB5">
-        <v>0.02278466212947925</v>
+        <v>0.01465887287089595</v>
       </c>
       <c r="AC5">
-        <v>0.01465887287089595</v>
+        <v>0.003708951399324529</v>
       </c>
       <c r="AD5">
-        <v>0.003708951399324529</v>
+        <v>0.03712133116740887</v>
       </c>
       <c r="AE5">
-        <v>0.03712133116740887</v>
+        <v>0.03188034554527393</v>
       </c>
       <c r="AF5">
-        <v>0.03188034554527393</v>
+        <v>0.02624910030265848</v>
       </c>
       <c r="AG5">
-        <v>0.02624910030265848</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1921,46 +1921,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1045414898951835</v>
       </c>
       <c r="E6">
-        <v>0.1045414898951835</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1377920934718917</v>
       </c>
       <c r="G6">
-        <v>0.1377920934718917</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01607095890992016</v>
       </c>
       <c r="J6">
-        <v>0.01607095890992016</v>
+        <v>0.006451508137881336</v>
       </c>
       <c r="K6">
-        <v>0.006451508137881336</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3693842269111354</v>
       </c>
       <c r="M6">
-        <v>0.3693842269111354</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01520310814059408</v>
       </c>
       <c r="P6">
-        <v>0.01520310814059408</v>
+        <v>0.004706021188803957</v>
       </c>
       <c r="Q6">
-        <v>0.004706021188803957</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1969,46 +1969,46 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.1237347354619491</v>
       </c>
       <c r="U6">
-        <v>0.1237347354619491</v>
+        <v>0.03314880354175029</v>
       </c>
       <c r="V6">
-        <v>0.03314880354175029</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.0376141042928465</v>
       </c>
       <c r="Y6">
-        <v>0.0376141042928465</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.0006869787771886546</v>
       </c>
       <c r="AA6">
-        <v>0.0006869787771886546</v>
+        <v>0.0250602091952035</v>
       </c>
       <c r="AB6">
-        <v>0.0250602091952035</v>
+        <v>0.01731805307203678</v>
       </c>
       <c r="AC6">
-        <v>0.01731805307203678</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.05150283799354832</v>
       </c>
       <c r="AE6">
-        <v>0.05150283799354832</v>
+        <v>0.02178307202322172</v>
       </c>
       <c r="AF6">
-        <v>0.02178307202322172</v>
+        <v>0.03500179898684522</v>
       </c>
       <c r="AG6">
-        <v>0.03500179898684522</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -2163,43 +2163,43 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1537106556031587</v>
       </c>
       <c r="E7">
-        <v>0.1537106556031587</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0448298289325267</v>
       </c>
       <c r="G7">
-        <v>0.04482982893252671</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.08279368776442297</v>
       </c>
       <c r="I7">
-        <v>0.08279368776442297</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.02292945102141049</v>
       </c>
       <c r="K7">
-        <v>0.02292945102141048</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2450581674113953</v>
       </c>
       <c r="M7">
-        <v>0.2450581674113953</v>
+        <v>0.05231350495419881</v>
       </c>
       <c r="N7">
-        <v>0.05231350495419881</v>
+        <v>0.01490297398746902</v>
       </c>
       <c r="O7">
-        <v>0.01490297398746902</v>
+        <v>0.0458189788683579</v>
       </c>
       <c r="P7">
-        <v>0.0458189788683579</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.003291551565553791</v>
       </c>
       <c r="T7">
-        <v>0.003291551565553793</v>
+        <v>0.06591001709469003</v>
       </c>
       <c r="U7">
-        <v>0.06591001709469005</v>
+        <v>0.08976237327939653</v>
       </c>
       <c r="V7">
-        <v>0.08976237327939653</v>
+        <v>0.03104139331074135</v>
       </c>
       <c r="W7">
-        <v>0.03104139331074135</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -2232,25 +2232,25 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.001110666045071454</v>
       </c>
       <c r="AB7">
-        <v>0.001110666045071454</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.04188353375857023</v>
       </c>
       <c r="AE7">
-        <v>0.04188353375857023</v>
+        <v>0.06507132988065154</v>
       </c>
       <c r="AF7">
-        <v>0.06507132988065154</v>
+        <v>0.03957188652238534</v>
       </c>
       <c r="AG7">
-        <v>0.03957188652238534</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -2540,100 +2540,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.005731236262396374</v>
+        <v>0.1364476254520545</v>
       </c>
       <c r="AX8">
-        <v>0.1357520225522047</v>
+        <v>0.05681887273087793</v>
       </c>
       <c r="AY8">
-        <v>0.0565292130720392</v>
+        <v>0.01337359291370807</v>
       </c>
       <c r="AZ8">
-        <v>0.01330541503240478</v>
+        <v>0.04005765349642187</v>
       </c>
       <c r="BA8">
-        <v>0.03985344166172725</v>
+        <v>0.06004681134310128</v>
       </c>
       <c r="BB8">
-        <v>0.05974069582105673</v>
+        <v>0.003265805210014573</v>
       </c>
       <c r="BC8">
-        <v>0.003249156304862105</v>
+        <v>0.0286327902900841</v>
       </c>
       <c r="BD8">
-        <v>0.02848682181397036</v>
+        <v>0.08155396395308022</v>
       </c>
       <c r="BE8">
-        <v>0.08113820608531182</v>
+        <v>0.1685665537523067</v>
       </c>
       <c r="BF8">
-        <v>0.1677072102260319</v>
+        <v>0.001607289383565608</v>
       </c>
       <c r="BG8">
-        <v>0.001599095505860503</v>
+        <v>0.1113521926076201</v>
       </c>
       <c r="BH8">
-        <v>0.1107845249195539</v>
+        <v>0.005517583088264106</v>
       </c>
       <c r="BI8">
-        <v>0.005489454736571336</v>
+        <v>0.01017968901839727</v>
       </c>
       <c r="BJ8">
-        <v>0.01012779349308265</v>
+        <v>0.01728090683758553</v>
       </c>
       <c r="BK8">
-        <v>0.01719280967306226</v>
+        <v>0.006499654799227603</v>
       </c>
       <c r="BL8">
-        <v>0.006466519897015954</v>
+        <v>0.02936763315776475</v>
       </c>
       <c r="BM8">
-        <v>0.02921791849092033</v>
+        <v>0.02452401893709392</v>
       </c>
       <c r="BN8">
-        <v>0.02439899676369884</v>
+        <v>0.05252287528106975</v>
       </c>
       <c r="BO8">
-        <v>0.05225511639385629</v>
+        <v>0.005887958609118912</v>
       </c>
       <c r="BP8">
-        <v>0.0058579421022788</v>
+        <v>0.004174249683213495</v>
       </c>
       <c r="BQ8">
-        <v>0.004152969575371965</v>
+        <v>8.089934649268934E-05</v>
       </c>
       <c r="BR8">
-        <v>8.048692583069664E-05</v>
+        <v>0.0002017084108868175</v>
       </c>
       <c r="BS8">
-        <v>0.0002006801118961086</v>
+        <v>0.004858400539187283</v>
       </c>
       <c r="BT8">
-        <v>0.004833632665854976</v>
+        <v>0.01816162278832252</v>
       </c>
       <c r="BU8">
-        <v>0.01806903577967593</v>
+        <v>0.001302633574567775</v>
       </c>
       <c r="BV8">
-        <v>0.001295992816336116</v>
+        <v>0.01913764173920013</v>
       </c>
       <c r="BW8">
-        <v>0.01904007903669086</v>
+        <v>0.04296877345892897</v>
       </c>
       <c r="BX8">
-        <v>0.04274972088603152</v>
+        <v>0.03990993279509365</v>
       </c>
       <c r="BY8">
-        <v>0.03970647403285354</v>
+        <v>0.01369444152019358</v>
       </c>
       <c r="BZ8">
-        <v>0.01362462796937721</v>
+        <v>2.100938883124887E-05</v>
       </c>
       <c r="CA8">
-        <v>2.090228405938735E-05</v>
+        <v>0.001348682621996813</v>
       </c>
       <c r="CB8">
-        <v>0.001341807108115718</v>
+        <v>0.0006365332717281417</v>
       </c>
     </row>
     <row r="9" spans="1:80">
@@ -2647,43 +2647,43 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1207708190783662</v>
       </c>
       <c r="E9">
-        <v>0.1207708190783662</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.05571197188389718</v>
       </c>
       <c r="G9">
-        <v>0.05571197188389718</v>
+        <v>0.01018871704140141</v>
       </c>
       <c r="H9">
-        <v>0.01018871704140141</v>
+        <v>0.1178773305509633</v>
       </c>
       <c r="I9">
-        <v>0.1178773305509633</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.01710262822347282</v>
       </c>
       <c r="K9">
-        <v>0.01710262822347282</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2570777245061892</v>
       </c>
       <c r="M9">
-        <v>0.2570777245061892</v>
+        <v>0.05761255502295754</v>
       </c>
       <c r="N9">
-        <v>0.05761255502295754</v>
+        <v>0.01096318066785292</v>
       </c>
       <c r="O9">
-        <v>0.01096318066785292</v>
+        <v>0.06909629150655856</v>
       </c>
       <c r="P9">
-        <v>0.06909629150655856</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2692,25 +2692,25 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.0273813298732039</v>
       </c>
       <c r="T9">
-        <v>0.0273813298732039</v>
+        <v>0.02647796389680886</v>
       </c>
       <c r="U9">
-        <v>0.02647796389680886</v>
+        <v>0.04292372285566615</v>
       </c>
       <c r="V9">
-        <v>0.04292372285566615</v>
+        <v>0.04051014466154409</v>
       </c>
       <c r="W9">
-        <v>0.04051014466154409</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.002490297844715275</v>
       </c>
       <c r="Y9">
-        <v>0.002490297844715275</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2719,22 +2719,22 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.007913672594699616</v>
       </c>
       <c r="AC9">
-        <v>0.007913672594699616</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.04257890973262566</v>
       </c>
       <c r="AE9">
-        <v>0.04257890973262566</v>
+        <v>0.05549788357428814</v>
       </c>
       <c r="AF9">
-        <v>0.05549788357428814</v>
+        <v>0.03782485648478923</v>
       </c>
       <c r="AG9">
-        <v>0.03782485648478923</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2889,46 +2889,46 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2249101375732502</v>
       </c>
       <c r="E10">
-        <v>0.2249101375732502</v>
+        <v>0.01995873607515636</v>
       </c>
       <c r="F10">
-        <v>0.01995873607515636</v>
+        <v>0.06599831925436525</v>
       </c>
       <c r="G10">
-        <v>0.06599831925436525</v>
+        <v>0.01756017695696292</v>
       </c>
       <c r="H10">
-        <v>0.01756017695696292</v>
+        <v>0.08931829033704483</v>
       </c>
       <c r="I10">
-        <v>0.08931829033704483</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.00354691232090576</v>
       </c>
       <c r="K10">
-        <v>0.00354691232090576</v>
+        <v>0.04247013531004883</v>
       </c>
       <c r="L10">
-        <v>0.04247013531004883</v>
+        <v>0.2458945132703195</v>
       </c>
       <c r="M10">
-        <v>0.2458945132703195</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1100480893403574</v>
       </c>
       <c r="O10">
-        <v>0.1100480893403574</v>
+        <v>0.004580409555486397</v>
       </c>
       <c r="P10">
-        <v>0.004580409555486397</v>
+        <v>0.003997752233104467</v>
       </c>
       <c r="Q10">
-        <v>0.003997752233104467</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2937,13 +2937,13 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.01108991688486967</v>
       </c>
       <c r="U10">
-        <v>0.01108991688486967</v>
+        <v>0.06826184707800849</v>
       </c>
       <c r="V10">
-        <v>0.06826184707800849</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2958,25 +2958,25 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.00286655960595956</v>
       </c>
       <c r="AB10">
-        <v>0.00286655960595956</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.04108814054861832</v>
       </c>
       <c r="AE10">
-        <v>0.04108814054861832</v>
+        <v>0.03713417728598371</v>
       </c>
       <c r="AF10">
-        <v>0.03713417728598371</v>
+        <v>0.01127588636955829</v>
       </c>
       <c r="AG10">
-        <v>0.01127588636955829</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -3263,103 +3263,103 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.2226359146676182</v>
       </c>
       <c r="AW11">
-        <v>0.2226359146676182</v>
+        <v>0.03083959103729727</v>
       </c>
       <c r="AX11">
-        <v>0.03083959103729727</v>
+        <v>0.1056058572054914</v>
       </c>
       <c r="AY11">
-        <v>0.1056058572054914</v>
+        <v>0.02437302261004309</v>
       </c>
       <c r="AZ11">
-        <v>0.02437302261004309</v>
+        <v>0.02905721105278122</v>
       </c>
       <c r="BA11">
-        <v>0.02905721105278122</v>
+        <v>0.004101933178399429</v>
       </c>
       <c r="BB11">
-        <v>0.004101933178399429</v>
+        <v>0.01716480848643908</v>
       </c>
       <c r="BC11">
-        <v>0.01716480848643908</v>
+        <v>0.07329856835767949</v>
       </c>
       <c r="BD11">
-        <v>0.07329856835767949</v>
+        <v>0.1201986077830927</v>
       </c>
       <c r="BE11">
-        <v>0.1201986077830927</v>
+        <v>0.0004055943224921562</v>
       </c>
       <c r="BF11">
-        <v>0.0004055943224921562</v>
+        <v>0.1039220910400166</v>
       </c>
       <c r="BG11">
-        <v>0.1039220910400166</v>
+        <v>0.001306085822226064</v>
       </c>
       <c r="BH11">
-        <v>0.001306085822226064</v>
+        <v>0.004451850608408323</v>
       </c>
       <c r="BI11">
-        <v>0.004451850608408323</v>
+        <v>0.003805639208221023</v>
       </c>
       <c r="BJ11">
-        <v>0.003805639208221023</v>
+        <v>0.0006072420718555886</v>
       </c>
       <c r="BK11">
-        <v>0.0006072420718555886</v>
+        <v>0.005693406566564317</v>
       </c>
       <c r="BL11">
-        <v>0.005693406566564317</v>
+        <v>0.03481537780548988</v>
       </c>
       <c r="BM11">
-        <v>0.03481537780548988</v>
+        <v>0.06277542809239814</v>
       </c>
       <c r="BN11">
-        <v>0.06277542809239814</v>
+        <v>0.006162966194481135</v>
       </c>
       <c r="BO11">
-        <v>0.006162966194481135</v>
+        <v>0.0005800435184029032</v>
       </c>
       <c r="BP11">
-        <v>0.0005800435184029032</v>
+        <v>0.001191227138050639</v>
       </c>
       <c r="BQ11">
-        <v>0.001191227138050639</v>
+        <v>0.002519559765895439</v>
       </c>
       <c r="BR11">
-        <v>0.002519559765895439</v>
+        <v>0.006278702594895855</v>
       </c>
       <c r="BS11">
-        <v>0.006278702594895855</v>
+        <v>0.02157027871628776</v>
       </c>
       <c r="BT11">
-        <v>0.02157027871628776</v>
+        <v>0.004307142987678415</v>
       </c>
       <c r="BU11">
-        <v>0.004307142987678415</v>
+        <v>0.007575702891829074</v>
       </c>
       <c r="BV11">
-        <v>0.007575702891829074</v>
+        <v>0.03731317695215591</v>
       </c>
       <c r="BW11">
-        <v>0.03731317695215591</v>
+        <v>0.03975281226264433</v>
       </c>
       <c r="BX11">
-        <v>0.03975281226264433</v>
+        <v>0.02573553544026465</v>
       </c>
       <c r="BY11">
-        <v>0.02573553544026465</v>
+        <v>0.001746706864680312</v>
       </c>
       <c r="BZ11">
-        <v>0.001746706864680312</v>
+        <v>7.152478567929349E-06</v>
       </c>
       <c r="CA11">
-        <v>7.152478567929349E-06</v>
+        <v>0.0002007622776513759</v>
       </c>
       <c r="CB11">
-        <v>0.0002007622776513759</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3628,43 +3628,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1822537217397042</v>
       </c>
       <c r="E2">
         <v>0.1822537217397042</v>
       </c>
       <c r="F2">
-        <v>0.1822537217397042</v>
+        <v>0.4212074687627239</v>
       </c>
       <c r="G2">
         <v>0.4212074687627239</v>
       </c>
       <c r="H2">
-        <v>0.4212074687627239</v>
+        <v>0.426354829407518</v>
       </c>
       <c r="I2">
-        <v>0.426354829407518</v>
+        <v>0.4655623003678683</v>
       </c>
       <c r="J2">
         <v>0.4655623003678683</v>
       </c>
       <c r="K2">
-        <v>0.4655623003678683</v>
+        <v>0.545646471658467</v>
       </c>
       <c r="L2">
-        <v>0.545646471658467</v>
+        <v>0.6124977090783522</v>
       </c>
       <c r="M2">
         <v>0.6124977090783522</v>
       </c>
       <c r="N2">
-        <v>0.6124977090783522</v>
+        <v>0.7237648831895978</v>
       </c>
       <c r="O2">
         <v>0.7237648831895978</v>
       </c>
       <c r="P2">
-        <v>0.7237648831895978</v>
+        <v>0.7363611151395982</v>
       </c>
       <c r="Q2">
         <v>0.7363611151395982</v>
@@ -3673,49 +3673,49 @@
         <v>0.7363611151395982</v>
       </c>
       <c r="S2">
-        <v>0.7363611151395982</v>
+        <v>0.7366367214765551</v>
       </c>
       <c r="T2">
-        <v>0.7366367214765551</v>
+        <v>0.7825577266954714</v>
       </c>
       <c r="U2">
-        <v>0.7825577266954714</v>
+        <v>0.8364426720590166</v>
       </c>
       <c r="V2">
-        <v>0.8364426720590166</v>
+        <v>0.8368351111731673</v>
       </c>
       <c r="W2">
         <v>0.8368351111731673</v>
       </c>
       <c r="X2">
-        <v>0.8368351111731673</v>
+        <v>0.8416439457381216</v>
       </c>
       <c r="Y2">
         <v>0.8416439457381216</v>
       </c>
       <c r="Z2">
-        <v>0.8416439457381216</v>
+        <v>0.8516978018411225</v>
       </c>
       <c r="AA2">
-        <v>0.8516978018411225</v>
+        <v>0.8870579732584032</v>
       </c>
       <c r="AB2">
-        <v>0.8870579732584032</v>
+        <v>0.8935119717346334</v>
       </c>
       <c r="AC2">
         <v>0.8935119717346334</v>
       </c>
       <c r="AD2">
-        <v>0.8935119717346334</v>
+        <v>0.9428856002067592</v>
       </c>
       <c r="AE2">
-        <v>0.9428856002067592</v>
+        <v>0.9734573982523043</v>
       </c>
       <c r="AF2">
-        <v>0.9734573982523043</v>
+        <v>0.9976525105669192</v>
       </c>
       <c r="AG2">
-        <v>0.9976525105669192</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH2">
         <v>0.9999999999999997</v>
@@ -3870,43 +3870,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.07882200109130982</v>
       </c>
       <c r="E3">
-        <v>0.07882200109130982</v>
+        <v>0.1076768109574728</v>
       </c>
       <c r="F3">
-        <v>0.1076768109574728</v>
+        <v>0.391190605475276</v>
       </c>
       <c r="G3">
-        <v>0.391190605475276</v>
+        <v>0.4217216240700633</v>
       </c>
       <c r="H3">
         <v>0.4217216240700633</v>
       </c>
       <c r="I3">
-        <v>0.4217216240700633</v>
+        <v>0.4412242481019219</v>
       </c>
       <c r="J3">
         <v>0.4412242481019219</v>
       </c>
       <c r="K3">
-        <v>0.4412242481019219</v>
+        <v>0.4776675205529983</v>
       </c>
       <c r="L3">
-        <v>0.4776675205529983</v>
+        <v>0.5671319127432519</v>
       </c>
       <c r="M3">
         <v>0.5671319127432519</v>
       </c>
       <c r="N3">
-        <v>0.5671319127432519</v>
+        <v>0.6801911958958106</v>
       </c>
       <c r="O3">
-        <v>0.6801911958958106</v>
+        <v>0.6851983585780781</v>
       </c>
       <c r="P3">
-        <v>0.6851983585780781</v>
+        <v>0.7068009984627373</v>
       </c>
       <c r="Q3">
         <v>0.7068009984627373</v>
@@ -3918,46 +3918,46 @@
         <v>0.7068009984627373</v>
       </c>
       <c r="T3">
-        <v>0.7068009984627373</v>
+        <v>0.7458250050165378</v>
       </c>
       <c r="U3">
-        <v>0.7458250050165378</v>
+        <v>0.7981222997281898</v>
       </c>
       <c r="V3">
-        <v>0.7981222997281898</v>
+        <v>0.815839682876541</v>
       </c>
       <c r="W3">
         <v>0.815839682876541</v>
       </c>
       <c r="X3">
-        <v>0.815839682876541</v>
+        <v>0.8249033724413919</v>
       </c>
       <c r="Y3">
-        <v>0.8249033724413919</v>
+        <v>0.8341288608251269</v>
       </c>
       <c r="Z3">
         <v>0.8341288608251269</v>
       </c>
       <c r="AA3">
-        <v>0.8341288608251269</v>
+        <v>0.8657578472814239</v>
       </c>
       <c r="AB3">
-        <v>0.8657578472814239</v>
+        <v>0.8814907182007647</v>
       </c>
       <c r="AC3">
         <v>0.8814907182007647</v>
       </c>
       <c r="AD3">
-        <v>0.8814907182007647</v>
+        <v>0.9183227112255519</v>
       </c>
       <c r="AE3">
-        <v>0.9183227112255519</v>
+        <v>0.9586233420314393</v>
       </c>
       <c r="AF3">
-        <v>0.9586233420314393</v>
+        <v>0.994399826381255</v>
       </c>
       <c r="AG3">
-        <v>0.994399826381255</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -4112,43 +4112,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2208703114954497</v>
       </c>
       <c r="E4">
-        <v>0.2208703114954497</v>
+        <v>0.3671752760469259</v>
       </c>
       <c r="F4">
-        <v>0.3671752760469259</v>
+        <v>0.4252985574736646</v>
       </c>
       <c r="G4">
         <v>0.4252985574736646</v>
       </c>
       <c r="H4">
-        <v>0.4252985574736646</v>
+        <v>0.446613294316864</v>
       </c>
       <c r="I4">
-        <v>0.446613294316864</v>
+        <v>0.4477622113704843</v>
       </c>
       <c r="J4">
-        <v>0.4477622113704843</v>
+        <v>0.4539144144082981</v>
       </c>
       <c r="K4">
-        <v>0.4539144144082981</v>
+        <v>0.5543181777909005</v>
       </c>
       <c r="L4">
-        <v>0.5543181777909005</v>
+        <v>0.6521577359652948</v>
       </c>
       <c r="M4">
         <v>0.6521577359652948</v>
       </c>
       <c r="N4">
-        <v>0.6521577359652948</v>
+        <v>0.7015624627463964</v>
       </c>
       <c r="O4">
         <v>0.7015624627463964</v>
       </c>
       <c r="P4">
-        <v>0.7015624627463964</v>
+        <v>0.7059499465598096</v>
       </c>
       <c r="Q4">
         <v>0.7059499465598096</v>
@@ -4157,46 +4157,46 @@
         <v>0.7059499465598096</v>
       </c>
       <c r="S4">
-        <v>0.7059499465598096</v>
+        <v>0.7368839865850477</v>
       </c>
       <c r="T4">
-        <v>0.7368839865850477</v>
+        <v>0.8125305423401236</v>
       </c>
       <c r="U4">
-        <v>0.8125305423401236</v>
+        <v>0.8337514696428313</v>
       </c>
       <c r="V4">
-        <v>0.8337514696428313</v>
+        <v>0.8345739677938058</v>
       </c>
       <c r="W4">
-        <v>0.8345739677938058</v>
+        <v>0.8389822726530621</v>
       </c>
       <c r="X4">
-        <v>0.8389822726530621</v>
+        <v>0.854536639222408</v>
       </c>
       <c r="Y4">
         <v>0.854536639222408</v>
       </c>
       <c r="Z4">
-        <v>0.854536639222408</v>
+        <v>0.8677080295504856</v>
       </c>
       <c r="AA4">
-        <v>0.8677080295504856</v>
+        <v>0.8936680732806884</v>
       </c>
       <c r="AB4">
-        <v>0.8936680732806884</v>
+        <v>0.8970277074017208</v>
       </c>
       <c r="AC4">
-        <v>0.8970277074017208</v>
+        <v>0.9215644463989876</v>
       </c>
       <c r="AD4">
-        <v>0.9215644463989876</v>
+        <v>0.9460010948190573</v>
       </c>
       <c r="AE4">
-        <v>0.9460010948190573</v>
+        <v>0.9845179853378393</v>
       </c>
       <c r="AF4">
-        <v>0.9845179853378393</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -4354,40 +4354,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.229789526548266</v>
       </c>
       <c r="E5">
-        <v>0.229789526548266</v>
+        <v>0.2726655206842942</v>
       </c>
       <c r="F5">
-        <v>0.2726655206842942</v>
+        <v>0.3672592220590613</v>
       </c>
       <c r="G5">
         <v>0.3672592220590613</v>
       </c>
       <c r="H5">
-        <v>0.3672592220590613</v>
+        <v>0.3892901510944168</v>
       </c>
       <c r="I5">
-        <v>0.3892901510944168</v>
+        <v>0.3955139542039213</v>
       </c>
       <c r="J5">
-        <v>0.3955139542039213</v>
+        <v>0.4035720810272158</v>
       </c>
       <c r="K5">
-        <v>0.4035720810272158</v>
+        <v>0.4152616291257931</v>
       </c>
       <c r="L5">
-        <v>0.4152616291257931</v>
+        <v>0.6454328644270579</v>
       </c>
       <c r="M5">
-        <v>0.6454328644270579</v>
+        <v>0.6556220494715423</v>
       </c>
       <c r="N5">
-        <v>0.6556220494715423</v>
+        <v>0.67951205907664</v>
       </c>
       <c r="O5">
-        <v>0.67951205907664</v>
+        <v>0.6805566011364583</v>
       </c>
       <c r="P5">
         <v>0.6805566011364583</v>
@@ -4399,46 +4399,46 @@
         <v>0.6805566011364583</v>
       </c>
       <c r="S5">
-        <v>0.6805566011364583</v>
+        <v>0.6865495339042422</v>
       </c>
       <c r="T5">
-        <v>0.6865495339042422</v>
+        <v>0.7753400824847789</v>
       </c>
       <c r="U5">
-        <v>0.7753400824847789</v>
+        <v>0.8285586465470839</v>
       </c>
       <c r="V5">
-        <v>0.8285586465470839</v>
+        <v>0.8295984819334469</v>
       </c>
       <c r="W5">
         <v>0.8295984819334469</v>
       </c>
       <c r="X5">
-        <v>0.8295984819334469</v>
+        <v>0.8524183024207919</v>
       </c>
       <c r="Y5">
         <v>0.8524183024207919</v>
       </c>
       <c r="Z5">
-        <v>0.8524183024207919</v>
+        <v>0.8635967365849591</v>
       </c>
       <c r="AA5">
-        <v>0.8635967365849591</v>
+        <v>0.8863813987144383</v>
       </c>
       <c r="AB5">
-        <v>0.8863813987144383</v>
+        <v>0.9010402715853343</v>
       </c>
       <c r="AC5">
-        <v>0.9010402715853343</v>
+        <v>0.9047492229846588</v>
       </c>
       <c r="AD5">
-        <v>0.9047492229846588</v>
+        <v>0.9418705541520677</v>
       </c>
       <c r="AE5">
-        <v>0.9418705541520677</v>
+        <v>0.9737508996973416</v>
       </c>
       <c r="AF5">
-        <v>0.9737508996973416</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -4596,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1045414898951835</v>
       </c>
       <c r="E6">
         <v>0.1045414898951835</v>
       </c>
       <c r="F6">
-        <v>0.1045414898951835</v>
+        <v>0.2423335833670751</v>
       </c>
       <c r="G6">
         <v>0.2423335833670751</v>
@@ -4611,16 +4611,16 @@
         <v>0.2423335833670751</v>
       </c>
       <c r="I6">
-        <v>0.2423335833670751</v>
+        <v>0.2584045422769953</v>
       </c>
       <c r="J6">
-        <v>0.2584045422769953</v>
+        <v>0.2648560504148766</v>
       </c>
       <c r="K6">
         <v>0.2648560504148766</v>
       </c>
       <c r="L6">
-        <v>0.2648560504148766</v>
+        <v>0.6342402773260121</v>
       </c>
       <c r="M6">
         <v>0.6342402773260121</v>
@@ -4629,10 +4629,10 @@
         <v>0.6342402773260121</v>
       </c>
       <c r="O6">
-        <v>0.6342402773260121</v>
+        <v>0.6494433854666062</v>
       </c>
       <c r="P6">
-        <v>0.6494433854666062</v>
+        <v>0.6541494066554101</v>
       </c>
       <c r="Q6">
         <v>0.6541494066554101</v>
@@ -4644,10 +4644,10 @@
         <v>0.6541494066554101</v>
       </c>
       <c r="T6">
-        <v>0.6541494066554101</v>
+        <v>0.7778841421173592</v>
       </c>
       <c r="U6">
-        <v>0.7778841421173592</v>
+        <v>0.8110329456591095</v>
       </c>
       <c r="V6">
         <v>0.8110329456591095</v>
@@ -4656,31 +4656,31 @@
         <v>0.8110329456591095</v>
       </c>
       <c r="X6">
-        <v>0.8110329456591095</v>
+        <v>0.8486470499519561</v>
       </c>
       <c r="Y6">
         <v>0.8486470499519561</v>
       </c>
       <c r="Z6">
-        <v>0.8486470499519561</v>
+        <v>0.8493340287291448</v>
       </c>
       <c r="AA6">
-        <v>0.8493340287291448</v>
+        <v>0.8743942379243482</v>
       </c>
       <c r="AB6">
-        <v>0.8743942379243482</v>
+        <v>0.891712290996385</v>
       </c>
       <c r="AC6">
         <v>0.891712290996385</v>
       </c>
       <c r="AD6">
-        <v>0.891712290996385</v>
+        <v>0.9432151289899333</v>
       </c>
       <c r="AE6">
-        <v>0.9432151289899333</v>
+        <v>0.964998201013155</v>
       </c>
       <c r="AF6">
-        <v>0.964998201013155</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -4838,91 +4838,91 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1537106556031587</v>
       </c>
       <c r="E7">
         <v>0.1537106556031587</v>
       </c>
       <c r="F7">
-        <v>0.1537106556031587</v>
+        <v>0.1985404845356854</v>
       </c>
       <c r="G7">
         <v>0.1985404845356854</v>
       </c>
       <c r="H7">
-        <v>0.1985404845356854</v>
+        <v>0.2813341723001084</v>
       </c>
       <c r="I7">
         <v>0.2813341723001084</v>
       </c>
       <c r="J7">
-        <v>0.2813341723001084</v>
+        <v>0.3042636233215189</v>
       </c>
       <c r="K7">
         <v>0.3042636233215189</v>
       </c>
       <c r="L7">
-        <v>0.3042636233215189</v>
+        <v>0.5493217907329142</v>
       </c>
       <c r="M7">
-        <v>0.5493217907329142</v>
+        <v>0.601635295687113</v>
       </c>
       <c r="N7">
-        <v>0.601635295687113</v>
+        <v>0.616538269674582</v>
       </c>
       <c r="O7">
-        <v>0.616538269674582</v>
+        <v>0.6623572485429399</v>
       </c>
       <c r="P7">
-        <v>0.66235724854294</v>
+        <v>0.6623572485429399</v>
       </c>
       <c r="Q7">
-        <v>0.66235724854294</v>
+        <v>0.6623572485429399</v>
       </c>
       <c r="R7">
-        <v>0.66235724854294</v>
+        <v>0.6623572485429399</v>
       </c>
       <c r="S7">
-        <v>0.66235724854294</v>
+        <v>0.6656488001084937</v>
       </c>
       <c r="T7">
-        <v>0.6656488001084938</v>
+        <v>0.7315588172031837</v>
       </c>
       <c r="U7">
-        <v>0.7315588172031838</v>
+        <v>0.8213211904825802</v>
       </c>
       <c r="V7">
-        <v>0.8213211904825803</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="W7">
-        <v>0.8523625837933216</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="X7">
-        <v>0.8523625837933216</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="Y7">
-        <v>0.8523625837933216</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="Z7">
-        <v>0.8523625837933216</v>
+        <v>0.8523625837933215</v>
       </c>
       <c r="AA7">
-        <v>0.8523625837933216</v>
+        <v>0.853473249838393</v>
       </c>
       <c r="AB7">
-        <v>0.8534732498383931</v>
+        <v>0.853473249838393</v>
       </c>
       <c r="AC7">
-        <v>0.8534732498383931</v>
+        <v>0.853473249838393</v>
       </c>
       <c r="AD7">
-        <v>0.8534732498383931</v>
+        <v>0.8953567835969632</v>
       </c>
       <c r="AE7">
-        <v>0.8953567835969634</v>
+        <v>0.9604281134776148</v>
       </c>
       <c r="AF7">
-        <v>0.9604281134776149</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -5215,97 +5215,97 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.005731236262396374</v>
+        <v>0.1364476254520545</v>
       </c>
       <c r="AX8">
-        <v>0.1414832588146011</v>
+        <v>0.1932664981829325</v>
       </c>
       <c r="AY8">
-        <v>0.1980124718866403</v>
+        <v>0.2066400910966405</v>
       </c>
       <c r="AZ8">
-        <v>0.2113178869190451</v>
+        <v>0.2466977445930624</v>
       </c>
       <c r="BA8">
-        <v>0.2511713285807723</v>
+        <v>0.3067445559361637</v>
       </c>
       <c r="BB8">
-        <v>0.3109120244018291</v>
+        <v>0.3100103611461782</v>
       </c>
       <c r="BC8">
-        <v>0.3141611807066912</v>
+        <v>0.3386431514362623</v>
       </c>
       <c r="BD8">
-        <v>0.3426480025206616</v>
+        <v>0.4201971153893426</v>
       </c>
       <c r="BE8">
-        <v>0.4237862086059734</v>
+        <v>0.5887636691416493</v>
       </c>
       <c r="BF8">
-        <v>0.5914934188320053</v>
+        <v>0.5903709585252149</v>
       </c>
       <c r="BG8">
-        <v>0.5930925143378658</v>
+        <v>0.701723151132835</v>
       </c>
       <c r="BH8">
-        <v>0.7038770392574196</v>
+        <v>0.7072407342210991</v>
       </c>
       <c r="BI8">
-        <v>0.709366493993991</v>
+        <v>0.7174204232394964</v>
       </c>
       <c r="BJ8">
-        <v>0.7194942874870737</v>
+        <v>0.7347013300770819</v>
       </c>
       <c r="BK8">
-        <v>0.7366870971601359</v>
+        <v>0.7412009848763096</v>
       </c>
       <c r="BL8">
-        <v>0.7431536170571519</v>
+        <v>0.7705686180340743</v>
       </c>
       <c r="BM8">
-        <v>0.7723715355480723</v>
+        <v>0.7950926369711682</v>
       </c>
       <c r="BN8">
-        <v>0.7967705323117711</v>
+        <v>0.847615512252238</v>
       </c>
       <c r="BO8">
-        <v>0.8490256487056274</v>
+        <v>0.8535034708613569</v>
       </c>
       <c r="BP8">
-        <v>0.8548835908079061</v>
+        <v>0.8576777205445704</v>
       </c>
       <c r="BQ8">
-        <v>0.859036560383278</v>
+        <v>0.8577586198910631</v>
       </c>
       <c r="BR8">
-        <v>0.8591170473091088</v>
+        <v>0.8579603283019499</v>
       </c>
       <c r="BS8">
-        <v>0.8593177274210049</v>
+        <v>0.8628187288411372</v>
       </c>
       <c r="BT8">
-        <v>0.8641513600868599</v>
+        <v>0.8809803516294598</v>
       </c>
       <c r="BU8">
-        <v>0.8822203958665358</v>
+        <v>0.8822829852040275</v>
       </c>
       <c r="BV8">
-        <v>0.8835163886828719</v>
+        <v>0.9014206269432276</v>
       </c>
       <c r="BW8">
-        <v>0.9025564677195628</v>
+        <v>0.9443894004021566</v>
       </c>
       <c r="BX8">
-        <v>0.9453061886055943</v>
+        <v>0.9842993331972503</v>
       </c>
       <c r="BY8">
-        <v>0.9850126626384479</v>
+        <v>0.9979937747174439</v>
       </c>
       <c r="BZ8">
-        <v>0.9986372906078251</v>
+        <v>0.9980147841062751</v>
       </c>
       <c r="CA8">
-        <v>0.9986581928918845</v>
+        <v>0.9993634667282719</v>
       </c>
       <c r="CB8">
         <v>1</v>
@@ -5322,40 +5322,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1207708190783662</v>
       </c>
       <c r="E9">
         <v>0.1207708190783662</v>
       </c>
       <c r="F9">
-        <v>0.1207708190783662</v>
+        <v>0.1764827909622634</v>
       </c>
       <c r="G9">
-        <v>0.1764827909622634</v>
+        <v>0.1866715080036648</v>
       </c>
       <c r="H9">
-        <v>0.1866715080036648</v>
+        <v>0.3045488385546281</v>
       </c>
       <c r="I9">
         <v>0.3045488385546281</v>
       </c>
       <c r="J9">
-        <v>0.3045488385546281</v>
+        <v>0.3216514667781009</v>
       </c>
       <c r="K9">
         <v>0.3216514667781009</v>
       </c>
       <c r="L9">
-        <v>0.3216514667781009</v>
+        <v>0.57872919128429</v>
       </c>
       <c r="M9">
-        <v>0.57872919128429</v>
+        <v>0.6363417463072476</v>
       </c>
       <c r="N9">
-        <v>0.6363417463072476</v>
+        <v>0.6473049269751006</v>
       </c>
       <c r="O9">
-        <v>0.6473049269751006</v>
+        <v>0.7164012184816592</v>
       </c>
       <c r="P9">
         <v>0.7164012184816592</v>
@@ -5367,22 +5367,22 @@
         <v>0.7164012184816592</v>
       </c>
       <c r="S9">
-        <v>0.7164012184816592</v>
+        <v>0.743782548354863</v>
       </c>
       <c r="T9">
-        <v>0.743782548354863</v>
+        <v>0.7702605122516719</v>
       </c>
       <c r="U9">
-        <v>0.7702605122516719</v>
+        <v>0.8131842351073381</v>
       </c>
       <c r="V9">
-        <v>0.8131842351073381</v>
+        <v>0.8536943797688822</v>
       </c>
       <c r="W9">
         <v>0.8536943797688822</v>
       </c>
       <c r="X9">
-        <v>0.8536943797688822</v>
+        <v>0.8561846776135975</v>
       </c>
       <c r="Y9">
         <v>0.8561846776135975</v>
@@ -5394,19 +5394,19 @@
         <v>0.8561846776135975</v>
       </c>
       <c r="AB9">
-        <v>0.8561846776135975</v>
+        <v>0.8640983502082972</v>
       </c>
       <c r="AC9">
         <v>0.8640983502082972</v>
       </c>
       <c r="AD9">
-        <v>0.8640983502082972</v>
+        <v>0.9066772599409229</v>
       </c>
       <c r="AE9">
-        <v>0.9066772599409229</v>
+        <v>0.9621751435152109</v>
       </c>
       <c r="AF9">
-        <v>0.9621751435152109</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -5564,43 +5564,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2249101375732502</v>
       </c>
       <c r="E10">
-        <v>0.2249101375732502</v>
+        <v>0.2448688736484066</v>
       </c>
       <c r="F10">
-        <v>0.2448688736484066</v>
+        <v>0.3108671929027719</v>
       </c>
       <c r="G10">
-        <v>0.3108671929027719</v>
+        <v>0.3284273698597348</v>
       </c>
       <c r="H10">
-        <v>0.3284273698597348</v>
+        <v>0.4177456601967796</v>
       </c>
       <c r="I10">
         <v>0.4177456601967796</v>
       </c>
       <c r="J10">
-        <v>0.4177456601967796</v>
+        <v>0.4212925725176854</v>
       </c>
       <c r="K10">
-        <v>0.4212925725176854</v>
+        <v>0.4637627078277342</v>
       </c>
       <c r="L10">
-        <v>0.4637627078277342</v>
+        <v>0.7096572210980537</v>
       </c>
       <c r="M10">
         <v>0.7096572210980537</v>
       </c>
       <c r="N10">
-        <v>0.7096572210980537</v>
+        <v>0.8197053104384111</v>
       </c>
       <c r="O10">
-        <v>0.8197053104384111</v>
+        <v>0.8242857199938975</v>
       </c>
       <c r="P10">
-        <v>0.8242857199938975</v>
+        <v>0.828283472227002</v>
       </c>
       <c r="Q10">
         <v>0.828283472227002</v>
@@ -5612,10 +5612,10 @@
         <v>0.828283472227002</v>
       </c>
       <c r="T10">
-        <v>0.828283472227002</v>
+        <v>0.8393733891118718</v>
       </c>
       <c r="U10">
-        <v>0.8393733891118718</v>
+        <v>0.9076352361898803</v>
       </c>
       <c r="V10">
         <v>0.9076352361898803</v>
@@ -5633,7 +5633,7 @@
         <v>0.9076352361898803</v>
       </c>
       <c r="AA10">
-        <v>0.9076352361898803</v>
+        <v>0.9105017957958399</v>
       </c>
       <c r="AB10">
         <v>0.9105017957958399</v>
@@ -5642,13 +5642,13 @@
         <v>0.9105017957958399</v>
       </c>
       <c r="AD10">
-        <v>0.9105017957958399</v>
+        <v>0.9515899363444582</v>
       </c>
       <c r="AE10">
-        <v>0.9515899363444582</v>
+        <v>0.9887241136304419</v>
       </c>
       <c r="AF10">
-        <v>0.9887241136304419</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -5938,100 +5938,100 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.2226359146676182</v>
       </c>
       <c r="AW11">
-        <v>0.2226359146676182</v>
+        <v>0.2534755057049154</v>
       </c>
       <c r="AX11">
-        <v>0.2534755057049154</v>
+        <v>0.3590813629104068</v>
       </c>
       <c r="AY11">
-        <v>0.3590813629104068</v>
+        <v>0.3834543855204499</v>
       </c>
       <c r="AZ11">
-        <v>0.3834543855204499</v>
+        <v>0.4125115965732311</v>
       </c>
       <c r="BA11">
-        <v>0.4125115965732311</v>
+        <v>0.4166135297516305</v>
       </c>
       <c r="BB11">
-        <v>0.4166135297516305</v>
+        <v>0.4337783382380696</v>
       </c>
       <c r="BC11">
-        <v>0.4337783382380696</v>
+        <v>0.5070769065957491</v>
       </c>
       <c r="BD11">
-        <v>0.5070769065957491</v>
+        <v>0.6272755143788419</v>
       </c>
       <c r="BE11">
-        <v>0.6272755143788419</v>
+        <v>0.6276811087013341</v>
       </c>
       <c r="BF11">
-        <v>0.6276811087013341</v>
+        <v>0.7316031997413507</v>
       </c>
       <c r="BG11">
-        <v>0.7316031997413507</v>
+        <v>0.7329092855635767</v>
       </c>
       <c r="BH11">
-        <v>0.7329092855635767</v>
+        <v>0.7373611361719851</v>
       </c>
       <c r="BI11">
-        <v>0.7373611361719851</v>
+        <v>0.741166775380206</v>
       </c>
       <c r="BJ11">
-        <v>0.741166775380206</v>
+        <v>0.7417740174520616</v>
       </c>
       <c r="BK11">
-        <v>0.7417740174520616</v>
+        <v>0.747467424018626</v>
       </c>
       <c r="BL11">
-        <v>0.747467424018626</v>
+        <v>0.7822828018241159</v>
       </c>
       <c r="BM11">
-        <v>0.7822828018241159</v>
+        <v>0.845058229916514</v>
       </c>
       <c r="BN11">
-        <v>0.845058229916514</v>
+        <v>0.8512211961109951</v>
       </c>
       <c r="BO11">
-        <v>0.8512211961109951</v>
+        <v>0.851801239629398</v>
       </c>
       <c r="BP11">
-        <v>0.851801239629398</v>
+        <v>0.8529924667674487</v>
       </c>
       <c r="BQ11">
-        <v>0.8529924667674487</v>
+        <v>0.8555120265333441</v>
       </c>
       <c r="BR11">
-        <v>0.8555120265333441</v>
+        <v>0.86179072912824</v>
       </c>
       <c r="BS11">
-        <v>0.86179072912824</v>
+        <v>0.8833610078445278</v>
       </c>
       <c r="BT11">
-        <v>0.8833610078445278</v>
+        <v>0.8876681508322062</v>
       </c>
       <c r="BU11">
-        <v>0.8876681508322062</v>
+        <v>0.8952438537240353</v>
       </c>
       <c r="BV11">
-        <v>0.8952438537240353</v>
+        <v>0.9325570306761911</v>
       </c>
       <c r="BW11">
-        <v>0.9325570306761911</v>
+        <v>0.9723098429388355</v>
       </c>
       <c r="BX11">
-        <v>0.9723098429388355</v>
+        <v>0.9980453783791001</v>
       </c>
       <c r="BY11">
-        <v>0.9980453783791001</v>
+        <v>0.9997920852437804</v>
       </c>
       <c r="BZ11">
-        <v>0.9997920852437804</v>
+        <v>0.9997992377223484</v>
       </c>
       <c r="CA11">
-        <v>0.9997992377223484</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB11">
         <v>0.9999999999999998</v>
@@ -6099,10 +6099,10 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6140,10 +6140,10 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6222,10 +6222,10 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6263,10 +6263,10 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6304,10 +6304,10 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6345,16 +6345,16 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5914934188320053</v>
+        <v>0.5887636691416493</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -6386,10 +6386,10 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6427,10 +6427,10 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6563,10 +6563,10 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6604,10 +6604,10 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6645,10 +6645,10 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6686,10 +6686,10 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6727,10 +6727,10 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6768,16 +6768,16 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7315588172031838</v>
+        <v>0.7315588172031837</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -6809,16 +6809,16 @@
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7038770392574196</v>
+        <v>0.701723151132835</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -6850,10 +6850,10 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6891,10 +6891,10 @@
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6932,10 +6932,10 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7027,10 +7027,10 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7068,10 +7068,10 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7109,10 +7109,10 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7150,10 +7150,10 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7191,10 +7191,10 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7232,16 +7232,16 @@
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8213211904825803</v>
+        <v>0.8213211904825802</v>
       </c>
       <c r="G7">
         <v>19</v>
@@ -7273,16 +7273,16 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8490256487056274</v>
+        <v>0.847615512252238</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -7314,10 +7314,10 @@
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7355,10 +7355,10 @@
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7491,10 +7491,10 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7532,10 +7532,10 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7573,10 +7573,10 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7614,10 +7614,10 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7696,16 +7696,16 @@
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9604281134776149</v>
+        <v>0.9604281134776148</v>
       </c>
       <c r="G7">
         <v>29</v>
@@ -7737,16 +7737,16 @@
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9025564677195628</v>
+        <v>0.9014206269432276</v>
       </c>
       <c r="G8">
         <v>27</v>
@@ -7778,10 +7778,10 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7819,10 +7819,10 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7860,10 +7860,10 @@
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>0</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/45_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/45_225-80R17.xlsx
@@ -291,40 +291,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -334,9 +337,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -953,43 +953,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1822537217397042</v>
+        <v>0.2488911628984476</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2389537470230196</v>
+        <v>0.3408872138962423</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.005147360644794167</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.03920747096035026</v>
+        <v>0.01679796512674963</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.08008417129059872</v>
+        <v>0.08312059883657408</v>
       </c>
       <c r="L2">
-        <v>0.06685123741988523</v>
+        <v>0.06165010295693942</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1112671741112456</v>
+        <v>0.1337151638904411</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.01259623195000052</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -998,49 +998,49 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0002756063369569441</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.04592100521891631</v>
+        <v>0.02769070524353802</v>
       </c>
       <c r="U2">
-        <v>0.05388494536354519</v>
+        <v>0.04061223464370663</v>
       </c>
       <c r="V2">
-        <v>0.0003924391141507413</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.00480883456495426</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01005385610300087</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.03536017141728061</v>
+        <v>0.01055570397784361</v>
       </c>
       <c r="AB2">
-        <v>0.006453998476230224</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.04937362847212578</v>
+        <v>0.03329260230251332</v>
       </c>
       <c r="AE2">
-        <v>0.03057179804554516</v>
+        <v>0.00278654622700427</v>
       </c>
       <c r="AF2">
-        <v>0.02419511231461496</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.002347489433080539</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1195,43 +1195,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07882200109130982</v>
+        <v>0.09605050841939132</v>
       </c>
       <c r="E3">
-        <v>0.02885480986616296</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2835137945178032</v>
+        <v>0.4956523348291115</v>
       </c>
       <c r="G3">
-        <v>0.03053101859478732</v>
+        <v>0.001776260870429332</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01950262403185858</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03644327245107638</v>
+        <v>0.01331823526824235</v>
       </c>
       <c r="L3">
-        <v>0.08946439219025359</v>
+        <v>0.1168267146820604</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1130592831525587</v>
+        <v>0.1628889498339606</v>
       </c>
       <c r="O3">
-        <v>0.005007162682267531</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.02160263988465912</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1243,46 +1243,46 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.03902400655380051</v>
+        <v>0.01835637599515308</v>
       </c>
       <c r="U3">
-        <v>0.05229729471165206</v>
+        <v>0.0442686517222438</v>
       </c>
       <c r="V3">
-        <v>0.01771738314835109</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.00906368956485098</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.009225488383735084</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.03162898645629698</v>
+        <v>0.00391972717874517</v>
       </c>
       <c r="AB3">
-        <v>0.01573287091934089</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03683199302478712</v>
+        <v>0.01407710033370297</v>
       </c>
       <c r="AE3">
-        <v>0.0403006308058874</v>
+        <v>0.02084861749752705</v>
       </c>
       <c r="AF3">
-        <v>0.03577648434981571</v>
+        <v>0.01201652336943231</v>
       </c>
       <c r="AG3">
-        <v>0.00560017361874516</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1437,43 +1437,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2208703114954497</v>
+        <v>0.3463960458020187</v>
       </c>
       <c r="E4">
-        <v>0.1463049645514762</v>
+        <v>0.2114170333175489</v>
       </c>
       <c r="F4">
-        <v>0.05812328142673873</v>
+        <v>0.05178957907477744</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02131473684319941</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001148917053620235</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.006152203037813761</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1004037633826025</v>
+        <v>0.1283261732927057</v>
       </c>
       <c r="L4">
-        <v>0.09783955817439423</v>
+        <v>0.1236844207763318</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.04940472678110162</v>
+        <v>0.03600715540759838</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.004387483813413151</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1482,46 +1482,46 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.03093404002523818</v>
+        <v>0.002571314760471534</v>
       </c>
       <c r="T4">
-        <v>0.0756465557550758</v>
+        <v>0.08351040330846077</v>
       </c>
       <c r="U4">
-        <v>0.02122092730270772</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0008224981509744468</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.004408304859256334</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01555436656934586</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01317139032807765</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0259600437302028</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.003359634121032365</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0245367389972668</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0244366484200696</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.03851689051878202</v>
+        <v>0.016297874260087</v>
       </c>
       <c r="AF4">
-        <v>0.01548201466216085</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1679,40 +1679,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.229789526548266</v>
+        <v>0.3497258735719217</v>
       </c>
       <c r="E5">
-        <v>0.04287599413602824</v>
+        <v>0.02343922127784627</v>
       </c>
       <c r="F5">
-        <v>0.09459370137476705</v>
+        <v>0.1137205259082451</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02203092903535553</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.006223803109504539</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008058126823294411</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01168954809857737</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2301712353012648</v>
+        <v>0.3503922055895129</v>
       </c>
       <c r="M5">
-        <v>0.01018918504448435</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02389000960509765</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001044542059818302</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1724,46 +1724,46 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.005992932767783929</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.08879054858053674</v>
+        <v>0.1035902198060399</v>
       </c>
       <c r="U5">
-        <v>0.05321856406230493</v>
+        <v>0.04149378626204137</v>
       </c>
       <c r="V5">
-        <v>0.00103983538636299</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.02281982048734504</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.01117843416416723</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.02278466212947925</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01465887287089595</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.003708951399324529</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.03712133116740887</v>
+        <v>0.01339356171067112</v>
       </c>
       <c r="AE5">
-        <v>0.03188034554527393</v>
+        <v>0.00424460587372162</v>
       </c>
       <c r="AF5">
-        <v>0.02624910030265848</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1921,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1045414898951835</v>
+        <v>0.1147139298528384</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1377920934718917</v>
+        <v>0.1632373037977225</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01607095890992016</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006451508137881336</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3693842269111354</v>
+        <v>0.5012050542970792</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01520310814059408</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.004706021188803957</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1237347354619491</v>
+        <v>0.1427230765049774</v>
       </c>
       <c r="U6">
-        <v>0.03314880354175029</v>
+        <v>0.0105289333650116</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1981,31 +1981,31 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0376141042928465</v>
+        <v>0.01704524990711461</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0006869787771886546</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0250602091952035</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01731805307203678</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.05150283799354832</v>
+        <v>0.03731339984987687</v>
       </c>
       <c r="AE6">
-        <v>0.02178307202322172</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.03500179898684522</v>
+        <v>0.01323305242537934</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -2163,40 +2163,40 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1537106556031587</v>
+        <v>0.1938600719119867</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0448298289325267</v>
+        <v>0.03100822558048972</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.08279368776442297</v>
+        <v>0.08779034869335725</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02292945102141049</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2450581674113953</v>
+        <v>0.3304875334278721</v>
       </c>
       <c r="M7">
-        <v>0.05231350495419881</v>
+        <v>0.04220147690620527</v>
       </c>
       <c r="N7">
-        <v>0.01490297398746902</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0458189788683579</v>
+        <v>0.03248768618227298</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.003291551565553791</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.06591001709469003</v>
+        <v>0.06253762950032257</v>
       </c>
       <c r="U7">
-        <v>0.08976237327939653</v>
+        <v>0.09821333442297521</v>
       </c>
       <c r="V7">
-        <v>0.03104139331074135</v>
+        <v>0.01038501516141976</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.001110666045071454</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.04188353375857023</v>
+        <v>0.02660148452618244</v>
       </c>
       <c r="AE7">
-        <v>0.06507132988065154</v>
+        <v>0.06128321432478433</v>
       </c>
       <c r="AF7">
-        <v>0.03957188652238534</v>
+        <v>0.02314397936213181</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -2540,100 +2540,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.1364476254520545</v>
+        <v>0.2171313733167312</v>
       </c>
       <c r="AX8">
-        <v>0.05681887273087793</v>
+        <v>0.05470501236765507</v>
       </c>
       <c r="AY8">
-        <v>0.01337359291370807</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0.04005765349642187</v>
+        <v>0.02051555501353605</v>
       </c>
       <c r="BA8">
-        <v>0.06004681134310128</v>
+        <v>0.06128934659660271</v>
       </c>
       <c r="BB8">
-        <v>0.003265805210014573</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>0.0286327902900841</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>0.08155396395308022</v>
+        <v>0.1051595368662825</v>
       </c>
       <c r="BE8">
-        <v>0.1685665537523067</v>
+        <v>0.2826474144841932</v>
       </c>
       <c r="BF8">
-        <v>0.001607289383565608</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>0.1113521926076201</v>
+        <v>0.1659418256462277</v>
       </c>
       <c r="BH8">
-        <v>0.005517583088264106</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>0.01017968901839727</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0.01728090683758553</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>0.006499654799227603</v>
+        <v>0</v>
       </c>
       <c r="BL8">
-        <v>0.02936763315776475</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>0.02452401893709392</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>0.05252287528106975</v>
+        <v>0.04594205666920065</v>
       </c>
       <c r="BO8">
-        <v>0.005887958609118912</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0.004174249683213495</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>8.089934649268934E-05</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>0.0002017084108868175</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>0.004858400539187283</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>0.01816162278832252</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>0.001302633574567775</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>0.01913764173920013</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>0.04296877345892897</v>
+        <v>0.02645364402834101</v>
       </c>
       <c r="BX8">
-        <v>0.03990993279509365</v>
+        <v>0.02021423501122981</v>
       </c>
       <c r="BY8">
-        <v>0.01369444152019358</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>2.100938883124887E-05</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>0.001348682621996813</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>0.0006365332717281417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:80">
@@ -2647,40 +2647,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1207708190783662</v>
+        <v>0.1560715603899922</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05571197188389718</v>
+        <v>0.04777890751203226</v>
       </c>
       <c r="G9">
-        <v>0.01018871704140141</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1178773305509633</v>
+        <v>0.1512552508146353</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01710262822347282</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2570777245061892</v>
+        <v>0.3829590173755359</v>
       </c>
       <c r="M9">
-        <v>0.05761255502295754</v>
+        <v>0.05094249246656962</v>
       </c>
       <c r="N9">
-        <v>0.01096318066785292</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.06909629150655856</v>
+        <v>0.07005756047635593</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0273813298732039</v>
+        <v>0.000621595119097884</v>
       </c>
       <c r="T9">
-        <v>0.02647796389680886</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.04292372285566615</v>
+        <v>0.02649243422437051</v>
       </c>
       <c r="V9">
-        <v>0.04051014466154409</v>
+        <v>0.02247495163989437</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.002490297844715275</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.007913672594699616</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.04257890973262566</v>
+        <v>0.02591848111189723</v>
       </c>
       <c r="AE9">
-        <v>0.05549788357428814</v>
+        <v>0.04742255027550728</v>
       </c>
       <c r="AF9">
-        <v>0.03782485648478923</v>
+        <v>0.01800519859411144</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2889,43 +2889,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2249101375732502</v>
+        <v>0.2783484694210445</v>
       </c>
       <c r="E10">
-        <v>0.01995873607515636</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06599831925436525</v>
+        <v>0.06072406044446706</v>
       </c>
       <c r="G10">
-        <v>0.01756017695696292</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.08931829033704483</v>
+        <v>0.09265997923204985</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.00354691232090576</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.04247013531004883</v>
+        <v>0.02850300112149557</v>
       </c>
       <c r="L10">
-        <v>0.2458945132703195</v>
+        <v>0.3070858686096513</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1100480893403574</v>
+        <v>0.1210487441711458</v>
       </c>
       <c r="O10">
-        <v>0.004580409555486397</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.003997752233104467</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2937,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.01108991688486967</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.06826184707800849</v>
+        <v>0.06382388593280115</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.00286655960595956</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.04108814054861832</v>
+        <v>0.02661040561571939</v>
       </c>
       <c r="AE10">
-        <v>0.03713417728598371</v>
+        <v>0.0211955854516253</v>
       </c>
       <c r="AF10">
-        <v>0.01127588636955829</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -3263,100 +3263,100 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.2226359146676182</v>
+        <v>0.362671979204047</v>
       </c>
       <c r="AW11">
-        <v>0.03083959103729727</v>
+        <v>0.001580682105639405</v>
       </c>
       <c r="AX11">
-        <v>0.1056058572054914</v>
+        <v>0.1423417119255561</v>
       </c>
       <c r="AY11">
-        <v>0.02437302261004309</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0.02905721105278122</v>
+        <v>0</v>
       </c>
       <c r="BA11">
-        <v>0.004101933178399429</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.01716480848643908</v>
+        <v>0</v>
       </c>
       <c r="BC11">
-        <v>0.07329856835767949</v>
+        <v>0.08151739259045358</v>
       </c>
       <c r="BD11">
-        <v>0.1201986077830927</v>
+        <v>0.1698152063834373</v>
       </c>
       <c r="BE11">
-        <v>0.0004055943224921562</v>
+        <v>0</v>
       </c>
       <c r="BF11">
-        <v>0.1039220910400166</v>
+        <v>0.1391717173334096</v>
       </c>
       <c r="BG11">
-        <v>0.001306085822226064</v>
+        <v>0</v>
       </c>
       <c r="BH11">
-        <v>0.004451850608408323</v>
+        <v>0</v>
       </c>
       <c r="BI11">
-        <v>0.003805639208221023</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0.0006072420718555886</v>
+        <v>0</v>
       </c>
       <c r="BK11">
-        <v>0.005693406566564317</v>
+        <v>0</v>
       </c>
       <c r="BL11">
-        <v>0.03481537780548988</v>
+        <v>0.009065820370752634</v>
       </c>
       <c r="BM11">
-        <v>0.06277542809239814</v>
+        <v>0.06170567620290227</v>
       </c>
       <c r="BN11">
-        <v>0.006162966194481135</v>
+        <v>0</v>
       </c>
       <c r="BO11">
-        <v>0.0005800435184029032</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>0.001191227138050639</v>
+        <v>0</v>
       </c>
       <c r="BQ11">
-        <v>0.002519559765895439</v>
+        <v>0</v>
       </c>
       <c r="BR11">
-        <v>0.006278702594895855</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>0.02157027871628776</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>0.004307142987678415</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>0.007575702891829074</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>0.03731317695215591</v>
+        <v>0.01376837940154704</v>
       </c>
       <c r="BW11">
-        <v>0.03975281226264433</v>
+        <v>0.01836143448225494</v>
       </c>
       <c r="BX11">
-        <v>0.02573553544026465</v>
+        <v>0</v>
       </c>
       <c r="BY11">
-        <v>0.001746706864680312</v>
+        <v>0</v>
       </c>
       <c r="BZ11">
-        <v>7.152478567929349E-06</v>
+        <v>0</v>
       </c>
       <c r="CA11">
-        <v>0.0002007622776513759</v>
+        <v>0</v>
       </c>
       <c r="CB11">
         <v>0</v>
@@ -3628,235 +3628,235 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1822537217397042</v>
+        <v>0.2488911628984476</v>
       </c>
       <c r="E2">
-        <v>0.1822537217397042</v>
+        <v>0.2488911628984476</v>
       </c>
       <c r="F2">
-        <v>0.4212074687627239</v>
+        <v>0.5897783767946899</v>
       </c>
       <c r="G2">
-        <v>0.4212074687627239</v>
+        <v>0.5897783767946899</v>
       </c>
       <c r="H2">
-        <v>0.426354829407518</v>
+        <v>0.5897783767946899</v>
       </c>
       <c r="I2">
-        <v>0.4655623003678683</v>
+        <v>0.6065763419214395</v>
       </c>
       <c r="J2">
-        <v>0.4655623003678683</v>
+        <v>0.6065763419214395</v>
       </c>
       <c r="K2">
-        <v>0.545646471658467</v>
+        <v>0.6896969407580136</v>
       </c>
       <c r="L2">
-        <v>0.6124977090783522</v>
+        <v>0.751347043714953</v>
       </c>
       <c r="M2">
-        <v>0.6124977090783522</v>
+        <v>0.751347043714953</v>
       </c>
       <c r="N2">
-        <v>0.7237648831895978</v>
+        <v>0.885062207605394</v>
       </c>
       <c r="O2">
-        <v>0.7237648831895978</v>
+        <v>0.885062207605394</v>
       </c>
       <c r="P2">
-        <v>0.7363611151395982</v>
+        <v>0.885062207605394</v>
       </c>
       <c r="Q2">
-        <v>0.7363611151395982</v>
+        <v>0.885062207605394</v>
       </c>
       <c r="R2">
-        <v>0.7363611151395982</v>
+        <v>0.885062207605394</v>
       </c>
       <c r="S2">
-        <v>0.7366367214765551</v>
+        <v>0.885062207605394</v>
       </c>
       <c r="T2">
-        <v>0.7825577266954714</v>
+        <v>0.912752912848932</v>
       </c>
       <c r="U2">
-        <v>0.8364426720590166</v>
+        <v>0.9533651474926387</v>
       </c>
       <c r="V2">
-        <v>0.8368351111731673</v>
+        <v>0.9533651474926387</v>
       </c>
       <c r="W2">
-        <v>0.8368351111731673</v>
+        <v>0.9533651474926387</v>
       </c>
       <c r="X2">
-        <v>0.8416439457381216</v>
+        <v>0.9533651474926387</v>
       </c>
       <c r="Y2">
-        <v>0.8416439457381216</v>
+        <v>0.9533651474926387</v>
       </c>
       <c r="Z2">
-        <v>0.8516978018411225</v>
+        <v>0.9533651474926387</v>
       </c>
       <c r="AA2">
-        <v>0.8870579732584032</v>
+        <v>0.9639208514704823</v>
       </c>
       <c r="AB2">
-        <v>0.8935119717346334</v>
+        <v>0.9639208514704823</v>
       </c>
       <c r="AC2">
-        <v>0.8935119717346334</v>
+        <v>0.9639208514704823</v>
       </c>
       <c r="AD2">
-        <v>0.9428856002067592</v>
+        <v>0.9972134537729956</v>
       </c>
       <c r="AE2">
-        <v>0.9734573982523043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.9976525105669192</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -3870,91 +3870,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07882200109130982</v>
+        <v>0.09605050841939132</v>
       </c>
       <c r="E3">
-        <v>0.1076768109574728</v>
+        <v>0.09605050841939132</v>
       </c>
       <c r="F3">
-        <v>0.391190605475276</v>
+        <v>0.5917028432485029</v>
       </c>
       <c r="G3">
-        <v>0.4217216240700633</v>
+        <v>0.5934791041189322</v>
       </c>
       <c r="H3">
-        <v>0.4217216240700633</v>
+        <v>0.5934791041189322</v>
       </c>
       <c r="I3">
-        <v>0.4412242481019219</v>
+        <v>0.5934791041189322</v>
       </c>
       <c r="J3">
-        <v>0.4412242481019219</v>
+        <v>0.5934791041189322</v>
       </c>
       <c r="K3">
-        <v>0.4776675205529983</v>
+        <v>0.6067973393871746</v>
       </c>
       <c r="L3">
-        <v>0.5671319127432519</v>
+        <v>0.723624054069235</v>
       </c>
       <c r="M3">
-        <v>0.5671319127432519</v>
+        <v>0.723624054069235</v>
       </c>
       <c r="N3">
-        <v>0.6801911958958106</v>
+        <v>0.8865130039031957</v>
       </c>
       <c r="O3">
-        <v>0.6851983585780781</v>
+        <v>0.8865130039031957</v>
       </c>
       <c r="P3">
-        <v>0.7068009984627373</v>
+        <v>0.8865130039031957</v>
       </c>
       <c r="Q3">
-        <v>0.7068009984627373</v>
+        <v>0.8865130039031957</v>
       </c>
       <c r="R3">
-        <v>0.7068009984627373</v>
+        <v>0.8865130039031957</v>
       </c>
       <c r="S3">
-        <v>0.7068009984627373</v>
+        <v>0.8865130039031957</v>
       </c>
       <c r="T3">
-        <v>0.7458250050165378</v>
+        <v>0.9048693798983487</v>
       </c>
       <c r="U3">
-        <v>0.7981222997281898</v>
+        <v>0.9491380316205925</v>
       </c>
       <c r="V3">
-        <v>0.815839682876541</v>
+        <v>0.9491380316205925</v>
       </c>
       <c r="W3">
-        <v>0.815839682876541</v>
+        <v>0.9491380316205925</v>
       </c>
       <c r="X3">
-        <v>0.8249033724413919</v>
+        <v>0.9491380316205925</v>
       </c>
       <c r="Y3">
-        <v>0.8341288608251269</v>
+        <v>0.9491380316205925</v>
       </c>
       <c r="Z3">
-        <v>0.8341288608251269</v>
+        <v>0.9491380316205925</v>
       </c>
       <c r="AA3">
-        <v>0.8657578472814239</v>
+        <v>0.9530577587993377</v>
       </c>
       <c r="AB3">
-        <v>0.8814907182007647</v>
+        <v>0.9530577587993377</v>
       </c>
       <c r="AC3">
-        <v>0.8814907182007647</v>
+        <v>0.9530577587993377</v>
       </c>
       <c r="AD3">
-        <v>0.9183227112255519</v>
+        <v>0.9671348591330408</v>
       </c>
       <c r="AE3">
-        <v>0.9586233420314393</v>
+        <v>0.9879834766305678</v>
       </c>
       <c r="AF3">
-        <v>0.994399826381255</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -4112,88 +4112,88 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2208703114954497</v>
+        <v>0.3463960458020187</v>
       </c>
       <c r="E4">
-        <v>0.3671752760469259</v>
+        <v>0.5578130791195676</v>
       </c>
       <c r="F4">
-        <v>0.4252985574736646</v>
+        <v>0.609602658194345</v>
       </c>
       <c r="G4">
-        <v>0.4252985574736646</v>
+        <v>0.609602658194345</v>
       </c>
       <c r="H4">
-        <v>0.446613294316864</v>
+        <v>0.609602658194345</v>
       </c>
       <c r="I4">
-        <v>0.4477622113704843</v>
+        <v>0.609602658194345</v>
       </c>
       <c r="J4">
-        <v>0.4539144144082981</v>
+        <v>0.609602658194345</v>
       </c>
       <c r="K4">
-        <v>0.5543181777909005</v>
+        <v>0.7379288314870507</v>
       </c>
       <c r="L4">
-        <v>0.6521577359652948</v>
+        <v>0.8616132522633825</v>
       </c>
       <c r="M4">
-        <v>0.6521577359652948</v>
+        <v>0.8616132522633825</v>
       </c>
       <c r="N4">
-        <v>0.7015624627463964</v>
+        <v>0.8976204076709808</v>
       </c>
       <c r="O4">
-        <v>0.7015624627463964</v>
+        <v>0.8976204076709808</v>
       </c>
       <c r="P4">
-        <v>0.7059499465598096</v>
+        <v>0.8976204076709808</v>
       </c>
       <c r="Q4">
-        <v>0.7059499465598096</v>
+        <v>0.8976204076709808</v>
       </c>
       <c r="R4">
-        <v>0.7059499465598096</v>
+        <v>0.8976204076709808</v>
       </c>
       <c r="S4">
-        <v>0.7368839865850477</v>
+        <v>0.9001917224314524</v>
       </c>
       <c r="T4">
-        <v>0.8125305423401236</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="U4">
-        <v>0.8337514696428313</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="V4">
-        <v>0.8345739677938058</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="W4">
-        <v>0.8389822726530621</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="X4">
-        <v>0.854536639222408</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="Y4">
-        <v>0.854536639222408</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="Z4">
-        <v>0.8677080295504856</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="AA4">
-        <v>0.8936680732806884</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="AB4">
-        <v>0.8970277074017208</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="AC4">
-        <v>0.9215644463989876</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="AD4">
-        <v>0.9460010948190573</v>
+        <v>0.9837021257399132</v>
       </c>
       <c r="AE4">
-        <v>0.9845179853378393</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -4354,88 +4354,88 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.229789526548266</v>
+        <v>0.3497258735719217</v>
       </c>
       <c r="E5">
-        <v>0.2726655206842942</v>
+        <v>0.373165094849768</v>
       </c>
       <c r="F5">
-        <v>0.3672592220590613</v>
+        <v>0.4868856207580131</v>
       </c>
       <c r="G5">
-        <v>0.3672592220590613</v>
+        <v>0.4868856207580131</v>
       </c>
       <c r="H5">
-        <v>0.3892901510944168</v>
+        <v>0.4868856207580131</v>
       </c>
       <c r="I5">
-        <v>0.3955139542039213</v>
+        <v>0.4868856207580131</v>
       </c>
       <c r="J5">
-        <v>0.4035720810272158</v>
+        <v>0.4868856207580131</v>
       </c>
       <c r="K5">
-        <v>0.4152616291257931</v>
+        <v>0.4868856207580131</v>
       </c>
       <c r="L5">
-        <v>0.6454328644270579</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="M5">
-        <v>0.6556220494715423</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="N5">
-        <v>0.67951205907664</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="O5">
-        <v>0.6805566011364583</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="P5">
-        <v>0.6805566011364583</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="Q5">
-        <v>0.6805566011364583</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="R5">
-        <v>0.6805566011364583</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="S5">
-        <v>0.6865495339042422</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="T5">
-        <v>0.7753400824847789</v>
+        <v>0.9408680461535659</v>
       </c>
       <c r="U5">
-        <v>0.8285586465470839</v>
+        <v>0.9823618324156073</v>
       </c>
       <c r="V5">
-        <v>0.8295984819334469</v>
+        <v>0.9823618324156073</v>
       </c>
       <c r="W5">
-        <v>0.8295984819334469</v>
+        <v>0.9823618324156073</v>
       </c>
       <c r="X5">
-        <v>0.8524183024207919</v>
+        <v>0.9823618324156073</v>
       </c>
       <c r="Y5">
-        <v>0.8524183024207919</v>
+        <v>0.9823618324156073</v>
       </c>
       <c r="Z5">
-        <v>0.8635967365849591</v>
+        <v>0.9823618324156073</v>
       </c>
       <c r="AA5">
-        <v>0.8863813987144383</v>
+        <v>0.9823618324156073</v>
       </c>
       <c r="AB5">
-        <v>0.9010402715853343</v>
+        <v>0.9823618324156073</v>
       </c>
       <c r="AC5">
-        <v>0.9047492229846588</v>
+        <v>0.9823618324156073</v>
       </c>
       <c r="AD5">
-        <v>0.9418705541520677</v>
+        <v>0.9957553941262783</v>
       </c>
       <c r="AE5">
-        <v>0.9737508996973416</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -4596,88 +4596,88 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1045414898951835</v>
+        <v>0.1147139298528384</v>
       </c>
       <c r="E6">
-        <v>0.1045414898951835</v>
+        <v>0.1147139298528384</v>
       </c>
       <c r="F6">
-        <v>0.2423335833670751</v>
+        <v>0.277951233650561</v>
       </c>
       <c r="G6">
-        <v>0.2423335833670751</v>
+        <v>0.277951233650561</v>
       </c>
       <c r="H6">
-        <v>0.2423335833670751</v>
+        <v>0.277951233650561</v>
       </c>
       <c r="I6">
-        <v>0.2584045422769953</v>
+        <v>0.277951233650561</v>
       </c>
       <c r="J6">
-        <v>0.2648560504148766</v>
+        <v>0.277951233650561</v>
       </c>
       <c r="K6">
-        <v>0.2648560504148766</v>
+        <v>0.277951233650561</v>
       </c>
       <c r="L6">
-        <v>0.6342402773260121</v>
+        <v>0.7791562879476401</v>
       </c>
       <c r="M6">
-        <v>0.6342402773260121</v>
+        <v>0.7791562879476401</v>
       </c>
       <c r="N6">
-        <v>0.6342402773260121</v>
+        <v>0.7791562879476401</v>
       </c>
       <c r="O6">
-        <v>0.6494433854666062</v>
+        <v>0.7791562879476401</v>
       </c>
       <c r="P6">
-        <v>0.6541494066554101</v>
+        <v>0.7791562879476401</v>
       </c>
       <c r="Q6">
-        <v>0.6541494066554101</v>
+        <v>0.7791562879476401</v>
       </c>
       <c r="R6">
-        <v>0.6541494066554101</v>
+        <v>0.7791562879476401</v>
       </c>
       <c r="S6">
-        <v>0.6541494066554101</v>
+        <v>0.7791562879476401</v>
       </c>
       <c r="T6">
-        <v>0.7778841421173592</v>
+        <v>0.9218793644526175</v>
       </c>
       <c r="U6">
-        <v>0.8110329456591095</v>
+        <v>0.9324082978176291</v>
       </c>
       <c r="V6">
-        <v>0.8110329456591095</v>
+        <v>0.9324082978176291</v>
       </c>
       <c r="W6">
-        <v>0.8110329456591095</v>
+        <v>0.9324082978176291</v>
       </c>
       <c r="X6">
-        <v>0.8486470499519561</v>
+        <v>0.9494535477247438</v>
       </c>
       <c r="Y6">
-        <v>0.8486470499519561</v>
+        <v>0.9494535477247438</v>
       </c>
       <c r="Z6">
-        <v>0.8493340287291448</v>
+        <v>0.9494535477247438</v>
       </c>
       <c r="AA6">
-        <v>0.8743942379243482</v>
+        <v>0.9494535477247438</v>
       </c>
       <c r="AB6">
-        <v>0.891712290996385</v>
+        <v>0.9494535477247438</v>
       </c>
       <c r="AC6">
-        <v>0.891712290996385</v>
+        <v>0.9494535477247438</v>
       </c>
       <c r="AD6">
-        <v>0.9432151289899333</v>
+        <v>0.9867669475746207</v>
       </c>
       <c r="AE6">
-        <v>0.964998201013155</v>
+        <v>0.9867669475746207</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -4838,88 +4838,88 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1537106556031587</v>
+        <v>0.1938600719119867</v>
       </c>
       <c r="E7">
-        <v>0.1537106556031587</v>
+        <v>0.1938600719119867</v>
       </c>
       <c r="F7">
-        <v>0.1985404845356854</v>
+        <v>0.2248682974924764</v>
       </c>
       <c r="G7">
-        <v>0.1985404845356854</v>
+        <v>0.2248682974924764</v>
       </c>
       <c r="H7">
-        <v>0.2813341723001084</v>
+        <v>0.3126586461858336</v>
       </c>
       <c r="I7">
-        <v>0.2813341723001084</v>
+        <v>0.3126586461858336</v>
       </c>
       <c r="J7">
-        <v>0.3042636233215189</v>
+        <v>0.3126586461858336</v>
       </c>
       <c r="K7">
-        <v>0.3042636233215189</v>
+        <v>0.3126586461858336</v>
       </c>
       <c r="L7">
-        <v>0.5493217907329142</v>
+        <v>0.6431461796137057</v>
       </c>
       <c r="M7">
-        <v>0.601635295687113</v>
+        <v>0.6853476565199109</v>
       </c>
       <c r="N7">
-        <v>0.616538269674582</v>
+        <v>0.6853476565199109</v>
       </c>
       <c r="O7">
-        <v>0.6623572485429399</v>
+        <v>0.7178353427021839</v>
       </c>
       <c r="P7">
-        <v>0.6623572485429399</v>
+        <v>0.7178353427021839</v>
       </c>
       <c r="Q7">
-        <v>0.6623572485429399</v>
+        <v>0.7178353427021839</v>
       </c>
       <c r="R7">
-        <v>0.6623572485429399</v>
+        <v>0.7178353427021839</v>
       </c>
       <c r="S7">
-        <v>0.6656488001084937</v>
+        <v>0.7178353427021839</v>
       </c>
       <c r="T7">
-        <v>0.7315588172031837</v>
+        <v>0.7803729722025065</v>
       </c>
       <c r="U7">
-        <v>0.8213211904825802</v>
+        <v>0.8785863066254817</v>
       </c>
       <c r="V7">
-        <v>0.8523625837933215</v>
+        <v>0.8889713217869014</v>
       </c>
       <c r="W7">
-        <v>0.8523625837933215</v>
+        <v>0.8889713217869014</v>
       </c>
       <c r="X7">
-        <v>0.8523625837933215</v>
+        <v>0.8889713217869014</v>
       </c>
       <c r="Y7">
-        <v>0.8523625837933215</v>
+        <v>0.8889713217869014</v>
       </c>
       <c r="Z7">
-        <v>0.8523625837933215</v>
+        <v>0.8889713217869014</v>
       </c>
       <c r="AA7">
-        <v>0.853473249838393</v>
+        <v>0.8889713217869014</v>
       </c>
       <c r="AB7">
-        <v>0.853473249838393</v>
+        <v>0.8889713217869014</v>
       </c>
       <c r="AC7">
-        <v>0.853473249838393</v>
+        <v>0.8889713217869014</v>
       </c>
       <c r="AD7">
-        <v>0.8953567835969632</v>
+        <v>0.9155728063130838</v>
       </c>
       <c r="AE7">
-        <v>0.9604281134776148</v>
+        <v>0.9768560206378681</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -5215,100 +5215,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.1364476254520545</v>
+        <v>0.2171313733167312</v>
       </c>
       <c r="AX8">
-        <v>0.1932664981829325</v>
+        <v>0.2718363856843863</v>
       </c>
       <c r="AY8">
-        <v>0.2066400910966405</v>
+        <v>0.2718363856843863</v>
       </c>
       <c r="AZ8">
-        <v>0.2466977445930624</v>
+        <v>0.2923519406979224</v>
       </c>
       <c r="BA8">
-        <v>0.3067445559361637</v>
+        <v>0.353641287294525</v>
       </c>
       <c r="BB8">
-        <v>0.3100103611461782</v>
+        <v>0.353641287294525</v>
       </c>
       <c r="BC8">
-        <v>0.3386431514362623</v>
+        <v>0.353641287294525</v>
       </c>
       <c r="BD8">
-        <v>0.4201971153893426</v>
+        <v>0.4588008241608076</v>
       </c>
       <c r="BE8">
-        <v>0.5887636691416493</v>
+        <v>0.7414482386450008</v>
       </c>
       <c r="BF8">
-        <v>0.5903709585252149</v>
+        <v>0.7414482386450008</v>
       </c>
       <c r="BG8">
-        <v>0.701723151132835</v>
+        <v>0.9073900642912285</v>
       </c>
       <c r="BH8">
-        <v>0.7072407342210991</v>
+        <v>0.9073900642912285</v>
       </c>
       <c r="BI8">
-        <v>0.7174204232394964</v>
+        <v>0.9073900642912285</v>
       </c>
       <c r="BJ8">
-        <v>0.7347013300770819</v>
+        <v>0.9073900642912285</v>
       </c>
       <c r="BK8">
-        <v>0.7412009848763096</v>
+        <v>0.9073900642912285</v>
       </c>
       <c r="BL8">
-        <v>0.7705686180340743</v>
+        <v>0.9073900642912285</v>
       </c>
       <c r="BM8">
-        <v>0.7950926369711682</v>
+        <v>0.9073900642912285</v>
       </c>
       <c r="BN8">
-        <v>0.847615512252238</v>
+        <v>0.9533321209604291</v>
       </c>
       <c r="BO8">
-        <v>0.8535034708613569</v>
+        <v>0.9533321209604291</v>
       </c>
       <c r="BP8">
-        <v>0.8576777205445704</v>
+        <v>0.9533321209604291</v>
       </c>
       <c r="BQ8">
-        <v>0.8577586198910631</v>
+        <v>0.9533321209604291</v>
       </c>
       <c r="BR8">
-        <v>0.8579603283019499</v>
+        <v>0.9533321209604291</v>
       </c>
       <c r="BS8">
-        <v>0.8628187288411372</v>
+        <v>0.9533321209604291</v>
       </c>
       <c r="BT8">
-        <v>0.8809803516294598</v>
+        <v>0.9533321209604291</v>
       </c>
       <c r="BU8">
-        <v>0.8822829852040275</v>
+        <v>0.9533321209604291</v>
       </c>
       <c r="BV8">
-        <v>0.9014206269432276</v>
+        <v>0.9533321209604291</v>
       </c>
       <c r="BW8">
-        <v>0.9443894004021566</v>
+        <v>0.9797857649887701</v>
       </c>
       <c r="BX8">
-        <v>0.9842993331972503</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY8">
-        <v>0.9979937747174439</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ8">
-        <v>0.9980147841062751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA8">
-        <v>0.9993634667282719</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:80">
@@ -5322,235 +5322,235 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1207708190783662</v>
+        <v>0.1560715603899922</v>
       </c>
       <c r="E9">
-        <v>0.1207708190783662</v>
+        <v>0.1560715603899922</v>
       </c>
       <c r="F9">
-        <v>0.1764827909622634</v>
+        <v>0.2038504679020245</v>
       </c>
       <c r="G9">
-        <v>0.1866715080036648</v>
+        <v>0.2038504679020245</v>
       </c>
       <c r="H9">
-        <v>0.3045488385546281</v>
+        <v>0.3551057187166599</v>
       </c>
       <c r="I9">
-        <v>0.3045488385546281</v>
+        <v>0.3551057187166599</v>
       </c>
       <c r="J9">
-        <v>0.3216514667781009</v>
+        <v>0.3551057187166599</v>
       </c>
       <c r="K9">
-        <v>0.3216514667781009</v>
+        <v>0.3551057187166599</v>
       </c>
       <c r="L9">
-        <v>0.57872919128429</v>
+        <v>0.7380647360921957</v>
       </c>
       <c r="M9">
-        <v>0.6363417463072476</v>
+        <v>0.7890072285587653</v>
       </c>
       <c r="N9">
-        <v>0.6473049269751006</v>
+        <v>0.7890072285587653</v>
       </c>
       <c r="O9">
-        <v>0.7164012184816592</v>
+        <v>0.8590647890351212</v>
       </c>
       <c r="P9">
-        <v>0.7164012184816592</v>
+        <v>0.8590647890351212</v>
       </c>
       <c r="Q9">
-        <v>0.7164012184816592</v>
+        <v>0.8590647890351212</v>
       </c>
       <c r="R9">
-        <v>0.7164012184816592</v>
+        <v>0.8590647890351212</v>
       </c>
       <c r="S9">
-        <v>0.743782548354863</v>
+        <v>0.8596863841542191</v>
       </c>
       <c r="T9">
-        <v>0.7702605122516719</v>
+        <v>0.8596863841542191</v>
       </c>
       <c r="U9">
-        <v>0.8131842351073381</v>
+        <v>0.8861788183785896</v>
       </c>
       <c r="V9">
-        <v>0.8536943797688822</v>
+        <v>0.9086537700184839</v>
       </c>
       <c r="W9">
-        <v>0.8536943797688822</v>
+        <v>0.9086537700184839</v>
       </c>
       <c r="X9">
-        <v>0.8561846776135975</v>
+        <v>0.9086537700184839</v>
       </c>
       <c r="Y9">
-        <v>0.8561846776135975</v>
+        <v>0.9086537700184839</v>
       </c>
       <c r="Z9">
-        <v>0.8561846776135975</v>
+        <v>0.9086537700184839</v>
       </c>
       <c r="AA9">
-        <v>0.8561846776135975</v>
+        <v>0.9086537700184839</v>
       </c>
       <c r="AB9">
-        <v>0.8640983502082972</v>
+        <v>0.9086537700184839</v>
       </c>
       <c r="AC9">
-        <v>0.8640983502082972</v>
+        <v>0.9086537700184839</v>
       </c>
       <c r="AD9">
-        <v>0.9066772599409229</v>
+        <v>0.9345722511303811</v>
       </c>
       <c r="AE9">
-        <v>0.9621751435152109</v>
+        <v>0.9819948014058884</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:80">
@@ -5564,88 +5564,88 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2249101375732502</v>
+        <v>0.2783484694210445</v>
       </c>
       <c r="E10">
-        <v>0.2448688736484066</v>
+        <v>0.2783484694210445</v>
       </c>
       <c r="F10">
-        <v>0.3108671929027719</v>
+        <v>0.3390725298655116</v>
       </c>
       <c r="G10">
-        <v>0.3284273698597348</v>
+        <v>0.3390725298655116</v>
       </c>
       <c r="H10">
-        <v>0.4177456601967796</v>
+        <v>0.4317325090975614</v>
       </c>
       <c r="I10">
-        <v>0.4177456601967796</v>
+        <v>0.4317325090975614</v>
       </c>
       <c r="J10">
-        <v>0.4212925725176854</v>
+        <v>0.4317325090975614</v>
       </c>
       <c r="K10">
-        <v>0.4637627078277342</v>
+        <v>0.460235510219057</v>
       </c>
       <c r="L10">
-        <v>0.7096572210980537</v>
+        <v>0.7673213788287083</v>
       </c>
       <c r="M10">
-        <v>0.7096572210980537</v>
+        <v>0.7673213788287083</v>
       </c>
       <c r="N10">
-        <v>0.8197053104384111</v>
+        <v>0.8883701229998542</v>
       </c>
       <c r="O10">
-        <v>0.8242857199938975</v>
+        <v>0.8883701229998542</v>
       </c>
       <c r="P10">
-        <v>0.828283472227002</v>
+        <v>0.8883701229998542</v>
       </c>
       <c r="Q10">
-        <v>0.828283472227002</v>
+        <v>0.8883701229998542</v>
       </c>
       <c r="R10">
-        <v>0.828283472227002</v>
+        <v>0.8883701229998542</v>
       </c>
       <c r="S10">
-        <v>0.828283472227002</v>
+        <v>0.8883701229998542</v>
       </c>
       <c r="T10">
-        <v>0.8393733891118718</v>
+        <v>0.8883701229998542</v>
       </c>
       <c r="U10">
-        <v>0.9076352361898803</v>
+        <v>0.9521940089326554</v>
       </c>
       <c r="V10">
-        <v>0.9076352361898803</v>
+        <v>0.9521940089326554</v>
       </c>
       <c r="W10">
-        <v>0.9076352361898803</v>
+        <v>0.9521940089326554</v>
       </c>
       <c r="X10">
-        <v>0.9076352361898803</v>
+        <v>0.9521940089326554</v>
       </c>
       <c r="Y10">
-        <v>0.9076352361898803</v>
+        <v>0.9521940089326554</v>
       </c>
       <c r="Z10">
-        <v>0.9076352361898803</v>
+        <v>0.9521940089326554</v>
       </c>
       <c r="AA10">
-        <v>0.9105017957958399</v>
+        <v>0.9521940089326554</v>
       </c>
       <c r="AB10">
-        <v>0.9105017957958399</v>
+        <v>0.9521940089326554</v>
       </c>
       <c r="AC10">
-        <v>0.9105017957958399</v>
+        <v>0.9521940089326554</v>
       </c>
       <c r="AD10">
-        <v>0.9515899363444582</v>
+        <v>0.9788044145483747</v>
       </c>
       <c r="AE10">
-        <v>0.9887241136304419</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -5938,103 +5938,103 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.2226359146676182</v>
+        <v>0.362671979204047</v>
       </c>
       <c r="AW11">
-        <v>0.2534755057049154</v>
+        <v>0.3642526613096864</v>
       </c>
       <c r="AX11">
-        <v>0.3590813629104068</v>
+        <v>0.5065943732352426</v>
       </c>
       <c r="AY11">
-        <v>0.3834543855204499</v>
+        <v>0.5065943732352426</v>
       </c>
       <c r="AZ11">
-        <v>0.4125115965732311</v>
+        <v>0.5065943732352426</v>
       </c>
       <c r="BA11">
-        <v>0.4166135297516305</v>
+        <v>0.5065943732352426</v>
       </c>
       <c r="BB11">
-        <v>0.4337783382380696</v>
+        <v>0.5065943732352426</v>
       </c>
       <c r="BC11">
-        <v>0.5070769065957491</v>
+        <v>0.5881117658256961</v>
       </c>
       <c r="BD11">
-        <v>0.6272755143788419</v>
+        <v>0.7579269722091335</v>
       </c>
       <c r="BE11">
-        <v>0.6276811087013341</v>
+        <v>0.7579269722091335</v>
       </c>
       <c r="BF11">
-        <v>0.7316031997413507</v>
+        <v>0.8970986895425431</v>
       </c>
       <c r="BG11">
-        <v>0.7329092855635767</v>
+        <v>0.8970986895425431</v>
       </c>
       <c r="BH11">
-        <v>0.7373611361719851</v>
+        <v>0.8970986895425431</v>
       </c>
       <c r="BI11">
-        <v>0.741166775380206</v>
+        <v>0.8970986895425431</v>
       </c>
       <c r="BJ11">
-        <v>0.7417740174520616</v>
+        <v>0.8970986895425431</v>
       </c>
       <c r="BK11">
-        <v>0.747467424018626</v>
+        <v>0.8970986895425431</v>
       </c>
       <c r="BL11">
-        <v>0.7822828018241159</v>
+        <v>0.9061645099132958</v>
       </c>
       <c r="BM11">
-        <v>0.845058229916514</v>
+        <v>0.967870186116198</v>
       </c>
       <c r="BN11">
-        <v>0.8512211961109951</v>
+        <v>0.967870186116198</v>
       </c>
       <c r="BO11">
-        <v>0.851801239629398</v>
+        <v>0.967870186116198</v>
       </c>
       <c r="BP11">
-        <v>0.8529924667674487</v>
+        <v>0.967870186116198</v>
       </c>
       <c r="BQ11">
-        <v>0.8555120265333441</v>
+        <v>0.967870186116198</v>
       </c>
       <c r="BR11">
-        <v>0.86179072912824</v>
+        <v>0.967870186116198</v>
       </c>
       <c r="BS11">
-        <v>0.8833610078445278</v>
+        <v>0.967870186116198</v>
       </c>
       <c r="BT11">
-        <v>0.8876681508322062</v>
+        <v>0.967870186116198</v>
       </c>
       <c r="BU11">
-        <v>0.8952438537240353</v>
+        <v>0.967870186116198</v>
       </c>
       <c r="BV11">
-        <v>0.9325570306761911</v>
+        <v>0.9816385655177451</v>
       </c>
       <c r="BW11">
-        <v>0.9723098429388355</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0.9980453783791001</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0.9997920852437804</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>0.9997992377223484</v>
+        <v>1</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6096,34 +6096,34 @@
         <v>80</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5897783767946899</v>
       </c>
       <c r="F2">
-        <v>0.545646471658467</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2">
         <v>45</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>104</v>
@@ -6137,34 +6137,34 @@
         <v>81</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5917028432485029</v>
       </c>
       <c r="F3">
-        <v>0.5671319127432519</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
         <v>45</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
@@ -6178,34 +6178,34 @@
         <v>82</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5578130791195676</v>
       </c>
       <c r="F4">
-        <v>0.5543181777909005</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4">
         <v>45</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -6219,34 +6219,34 @@
         <v>83</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.837277826347526</v>
+      </c>
+      <c r="F5">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6454328644270579</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5">
         <v>45</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
       </c>
       <c r="L5" t="s">
         <v>104</v>
@@ -6260,34 +6260,34 @@
         <v>84</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.7791562879476401</v>
+      </c>
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.6342402773260121</v>
-      </c>
       <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
         <v>45</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -6301,34 +6301,34 @@
         <v>85</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.6431461796137057</v>
+      </c>
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5493217907329142</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7">
         <v>45</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
       </c>
       <c r="L7" t="s">
         <v>104</v>
@@ -6342,34 +6342,34 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.7414482386450008</v>
+      </c>
+      <c r="F8">
         <v>56</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5887636691416493</v>
-      </c>
       <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
         <v>45</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -6383,34 +6383,34 @@
         <v>87</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.7380647360921957</v>
+      </c>
+      <c r="F9">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.57872919128429</v>
-      </c>
       <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9">
         <v>45</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -6424,34 +6424,34 @@
         <v>88</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.7673213788287083</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7096572210980537</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10">
         <v>45</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
       </c>
       <c r="L10" t="s">
         <v>104</v>
@@ -6465,34 +6465,34 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5065943732352426</v>
       </c>
       <c r="F11">
-        <v>0.5070769065957491</v>
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
         <v>45</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
       </c>
       <c r="L11" t="s">
         <v>104</v>
@@ -6560,34 +6560,34 @@
         <v>80</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.751347043714953</v>
       </c>
       <c r="F2">
-        <v>0.7237648831895978</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2">
         <v>45</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>104</v>
@@ -6601,34 +6601,34 @@
         <v>81</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.723624054069235</v>
       </c>
       <c r="F3">
-        <v>0.7068009984627373</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
         <v>45</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
@@ -6642,34 +6642,34 @@
         <v>82</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7379288314870507</v>
       </c>
       <c r="F4">
-        <v>0.7015624627463964</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4">
         <v>45</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -6683,34 +6683,34 @@
         <v>83</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="F5">
-        <v>0.7753400824847789</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5">
         <v>45</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
       </c>
       <c r="L5" t="s">
         <v>104</v>
@@ -6724,34 +6724,34 @@
         <v>84</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7791562879476401</v>
       </c>
       <c r="F6">
-        <v>0.7778841421173592</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
         <v>45</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -6765,34 +6765,34 @@
         <v>85</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7178353427021839</v>
       </c>
       <c r="F7">
-        <v>0.7315588172031837</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7">
         <v>45</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
       </c>
       <c r="L7" t="s">
         <v>104</v>
@@ -6806,34 +6806,34 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7414482386450008</v>
       </c>
       <c r="F8">
-        <v>0.701723151132835</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
         <v>45</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -6847,34 +6847,34 @@
         <v>87</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7380647360921957</v>
       </c>
       <c r="F9">
-        <v>0.7164012184816592</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9">
         <v>45</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -6888,34 +6888,34 @@
         <v>88</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.7673213788287083</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7096572210980537</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10">
         <v>45</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
       </c>
       <c r="L10" t="s">
         <v>104</v>
@@ -6929,34 +6929,34 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7579269722091335</v>
       </c>
       <c r="F11">
-        <v>0.7316031997413507</v>
+        <v>55</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
         <v>45</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
       </c>
       <c r="L11" t="s">
         <v>104</v>
@@ -7024,34 +7024,34 @@
         <v>80</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.885062207605394</v>
       </c>
       <c r="F2">
-        <v>0.8364426720590166</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2">
         <v>45</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>104</v>
@@ -7065,34 +7065,34 @@
         <v>81</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8865130039031957</v>
       </c>
       <c r="F3">
-        <v>0.815839682876541</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
         <v>45</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
@@ -7106,34 +7106,34 @@
         <v>82</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8616132522633825</v>
       </c>
       <c r="F4">
-        <v>0.8125305423401236</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4">
         <v>45</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -7147,34 +7147,34 @@
         <v>83</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.837277826347526</v>
       </c>
       <c r="F5">
-        <v>0.8285586465470839</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5">
         <v>45</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
       </c>
       <c r="L5" t="s">
         <v>104</v>
@@ -7188,34 +7188,34 @@
         <v>84</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9218793644526175</v>
       </c>
       <c r="F6">
-        <v>0.8110329456591095</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
         <v>45</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -7229,34 +7229,34 @@
         <v>85</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.8785863066254817</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8213211904825802</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>19</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7">
         <v>45</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
       </c>
       <c r="L7" t="s">
         <v>104</v>
@@ -7270,34 +7270,34 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9073900642912285</v>
       </c>
       <c r="F8">
-        <v>0.847615512252238</v>
+        <v>58</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
         <v>45</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -7311,34 +7311,34 @@
         <v>87</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8590647890351212</v>
       </c>
       <c r="F9">
-        <v>0.8131842351073381</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9">
         <v>45</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -7352,34 +7352,34 @@
         <v>88</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.8883701229998542</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8197053104384111</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10">
         <v>45</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
       </c>
       <c r="L10" t="s">
         <v>104</v>
@@ -7393,34 +7393,34 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8970986895425431</v>
       </c>
       <c r="F11">
-        <v>0.845058229916514</v>
+        <v>57</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
         <v>45</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
       </c>
       <c r="L11" t="s">
         <v>104</v>
@@ -7488,34 +7488,34 @@
         <v>80</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>29</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.912752912848932</v>
       </c>
       <c r="F2">
-        <v>0.9428856002067592</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2">
         <v>45</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>104</v>
@@ -7529,34 +7529,34 @@
         <v>81</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>29</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9048693798983487</v>
       </c>
       <c r="F3">
-        <v>0.9183227112255519</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
         <v>45</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
@@ -7570,34 +7570,34 @@
         <v>82</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9001917224314524</v>
       </c>
       <c r="F4">
-        <v>0.9215644463989876</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4">
         <v>45</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -7611,34 +7611,34 @@
         <v>83</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9408680461535659</v>
       </c>
       <c r="F5">
-        <v>0.9010402715853343</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5">
         <v>45</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
       </c>
       <c r="L5" t="s">
         <v>104</v>
@@ -7652,34 +7652,34 @@
         <v>84</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9218793644526175</v>
       </c>
       <c r="F6">
-        <v>0.9432151289899333</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
         <v>45</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -7693,34 +7693,34 @@
         <v>85</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9155728063130838</v>
       </c>
       <c r="F7">
-        <v>0.9604281134776148</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7">
         <v>45</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
       </c>
       <c r="L7" t="s">
         <v>104</v>
@@ -7734,34 +7734,34 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
-        <v>73</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9073900642912285</v>
       </c>
       <c r="F8">
-        <v>0.9014206269432276</v>
+        <v>58</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
         <v>45</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -7775,34 +7775,34 @@
         <v>87</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9086537700184839</v>
       </c>
       <c r="F9">
-        <v>0.9066772599409229</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9">
         <v>45</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -7816,34 +7816,34 @@
         <v>88</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9521940089326554</v>
+      </c>
+      <c r="F10">
         <v>20</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9076352361898803</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>19</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10">
         <v>45</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
       </c>
       <c r="L10" t="s">
         <v>104</v>
@@ -7857,34 +7857,34 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9061645099132958</v>
       </c>
       <c r="F11">
-        <v>0.9325570306761911</v>
+        <v>63</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
         <v>45</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
       </c>
       <c r="L11" t="s">
         <v>104</v>
